--- a/Excel/스케쥴표 양식 .xlsx
+++ b/Excel/스케쥴표 양식 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7811f3ea79ff8919/바탕 화면/new/SdSchedule/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A5C2BD-8CD9-425F-954E-338EE91EFD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E2A5C2BD-8CD9-425F-954E-338EE91EFD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA216AD-63AA-46C7-B325-E420CEB84559}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="330" windowWidth="22305" windowHeight="14970" xr2:uid="{51A4F2C0-5B6A-447B-AEA7-D8D00160D82E}"/>
+    <workbookView xWindow="28800" yWindow="2130" windowWidth="21615" windowHeight="11385" xr2:uid="{51A4F2C0-5B6A-447B-AEA7-D8D00160D82E}"/>
   </bookViews>
   <sheets>
     <sheet name="5월12일~5월18일 (20주차)" sheetId="4" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="127">
   <si>
     <t>주차</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -585,6 +585,14 @@
   </si>
   <si>
     <t>22주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16~19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9~22.3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1269,7 +1277,418 @@
     <xf numFmtId="177" fontId="11" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1284,500 +1703,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1880,6 +1888,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2204,8 +2216,8 @@
   </sheetPr>
   <dimension ref="A1:AI138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:P18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2226,11 +2238,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57">
+      <c r="A1" s="194">
         <f>C2</f>
-        <v>45424</v>
-      </c>
-      <c r="B1" s="58"/>
+        <v>45425</v>
+      </c>
+      <c r="B1" s="195"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2254,11 +2266,11 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="57">
+      <c r="L1" s="194">
         <f>A1</f>
-        <v>45424</v>
-      </c>
-      <c r="M1" s="58"/>
+        <v>45425</v>
+      </c>
+      <c r="M1" s="195"/>
       <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2280,34 +2292,34 @@
       <c r="T1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="U1" s="196" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="V1" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="56" t="s">
+      <c r="X1" s="225" t="s">
         <v>80</v>
       </c>
-      <c r="Y1" s="56" t="s">
+      <c r="Y1" s="225" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="56" t="s">
+      <c r="Z1" s="225" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="56" t="s">
+      <c r="AA1" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="56" t="s">
+      <c r="AB1" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="56" t="s">
+      <c r="AC1" s="225" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="56" t="s">
+      <c r="AD1" s="225" t="s">
         <v>74</v>
       </c>
-      <c r="AE1" s="56" t="s">
+      <c r="AE1" s="225" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2320,31 +2332,31 @@
         <v>0</v>
       </c>
       <c r="C2" s="7">
-        <v>45424</v>
+        <v>45425</v>
       </c>
       <c r="D2" s="8">
         <f>C2+1</f>
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="E2" s="8">
         <f>C2+2</f>
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="F2" s="7">
         <f>C2+3</f>
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="G2" s="8">
         <f>C2+4</f>
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="H2" s="8">
         <f>C2+5</f>
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="I2" s="9">
         <f>C2+6</f>
-        <v>45430</v>
+        <v>45431</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -2357,75 +2369,75 @@
       </c>
       <c r="N2" s="10">
         <f>C2</f>
-        <v>45424</v>
+        <v>45425</v>
       </c>
       <c r="O2" s="11">
         <f>N2+1</f>
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="P2" s="8">
         <f>N2+2</f>
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="Q2" s="55">
         <f>N2+3</f>
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="R2" s="11">
         <f>N2+4</f>
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="S2" s="11">
         <f>N2+5</f>
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="T2" s="12">
         <f>N2+6</f>
-        <v>45430</v>
-      </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
+        <v>45431</v>
+      </c>
+      <c r="U2" s="196"/>
+      <c r="V2" s="197"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="225"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="225"/>
+      <c r="AC2" s="225"/>
+      <c r="AD2" s="225"/>
+      <c r="AE2" s="225"/>
     </row>
     <row r="3" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="184"/>
+      <c r="C3" s="201" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="201" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="201" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="201" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="201" t="s">
         <v>118</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="201" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="201" t="s">
         <v>116</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="224" t="s">
+      <c r="L3" s="211" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="225"/>
+      <c r="M3" s="223"/>
       <c r="N3" s="31"/>
       <c r="O3" s="52" t="s">
         <v>111</v>
@@ -2445,54 +2457,54 @@
       <c r="T3" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="X3" s="66" t="s">
+      <c r="X3" s="224" t="s">
         <v>76</v>
       </c>
-      <c r="Y3" s="62">
+      <c r="Y3" s="221">
         <f t="shared" ref="Y3:AE3" si="0">COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"9.3~16.3")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"8~20")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9.3~16.3")+COUNTIFS(N3:N44,"9~16.3")</f>
         <v>2</v>
       </c>
-      <c r="Z3" s="62">
+      <c r="Z3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA3" s="61">
+      <c r="AA3" s="220">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB3" s="62">
+      <c r="AB3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC3" s="62">
+      <c r="AC3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AD3" s="62">
+      <c r="AD3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE3" s="62">
+      <c r="AE3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="224"/>
-      <c r="M4" s="225"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="223"/>
       <c r="N4" s="36"/>
       <c r="O4" s="30">
         <v>7</v>
@@ -2518,51 +2530,51 @@
         <f t="array" ref="V4">_xlfn.IFS(U4&gt;15,"O",U4=15,"O",U4&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
+      <c r="X4" s="224"/>
+      <c r="Y4" s="222"/>
+      <c r="Z4" s="222"/>
+      <c r="AA4" s="220"/>
+      <c r="AB4" s="222"/>
+      <c r="AC4" s="222"/>
+      <c r="AD4" s="222"/>
+      <c r="AE4" s="222"/>
     </row>
     <row r="5" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65" t="s">
+      <c r="B5" s="184"/>
+      <c r="C5" s="201" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="192" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="219" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="219"/>
+      <c r="M5" s="191"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
@@ -2575,52 +2587,52 @@
         <v>39</v>
       </c>
       <c r="U5" s="6"/>
-      <c r="X5" s="67" t="s">
+      <c r="X5" s="208" t="s">
         <v>77</v>
       </c>
-      <c r="Y5" s="65">
+      <c r="Y5" s="201">
         <f t="shared" ref="Y5:AE5" si="1">COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~14")+COUNTIFS(C7:C44,"10~14.3")+COUNTIFS(C7:C44,"10~15")+COUNTIFS(C7:C44,"10~15.3")+COUNTIFS(C7:C44,"10~16")+COUNTIFS(C7:C44,"10~16.3")+COUNTIFS(C7:C44,"10~17")+COUNTIFS(C7:C44,"10~17.3")+COUNTIFS(C7:C44,"10~18")+COUNTIFS(C7:C44,"10~18.3")+COUNTIFS(C7:C44,"10~19")+COUNTIFS(C7:C44,"10~19.3")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10~20.3")+COUNTIFS(C7:C44,"10.3~14")+COUNTIFS(C7:C44,"10.3~14.3")+COUNTIFS(C7:C44,"10.3~15")+COUNTIFS(C7:C44,"10.3~15.3")+COUNTIFS(C7:C44,"10.3~16")+COUNTIFS(C7:C44,"10.3~16.3")+COUNTIFS(C7:C44,"10.3~17")+COUNTIFS(C7:C44,"10.3~17.3")+COUNTIFS(C7:C44,"10.3~18")+COUNTIFS(C7:C44,"10.3~18.3")+COUNTIFS(C7:C44,"10.3~19")+COUNTIFS(C7:C44,"10.3~19.3")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"10.3~20.3")+COUNTIFS(C7:C44,"11~14")+COUNTIFS(C7:C44,"11~15")+COUNTIFS(C7:C44,"11~16")+COUNTIFS(C7:C44,"11~17")+COUNTIFS(C7:C44,"11~18")+COUNTIFS(C7:C44,"11~19")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~14.3")+COUNTIFS(C7:C44,"11.3~15.3")+COUNTIFS(C7:C44,"11.3~16.3")+COUNTIFS(C7:C44,"11.3~17")+COUNTIFS(C7:C44,"11.3~17.3")+COUNTIFS(C7:C44,"11.3~18.3")+COUNTIFS(C7:C44,"11.3~19.3")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~15")+COUNTIFS(C7:C44,"12~16")+COUNTIFS(C7:C44,"12~17")+COUNTIFS(C7:C44,"12~18")+COUNTIFS(C7:C44,"12~19")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~15.3")+COUNTIFS(C7:C44,"12~16.3")+COUNTIFS(C7:C44,"12~17.3")+COUNTIFS(C7:C44,"12~18.3")+COUNTIFS(C7:C44,"12~19.3")+COUNTIFS(C7:C44,"12~20.3")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~15")+COUNTIFS(C7:C44,"12.3~16")+COUNTIFS(C7:C44,"12.3~17")+COUNTIFS(C7:C44,"12.3~18")+COUNTIFS(C7:C44,"12.3~19")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~16.3")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~14")+COUNTIFS(N3:N44,"10~14.3")+COUNTIFS(N3:N44,"10~15")+COUNTIFS(N3:N44,"10~15.3")+COUNTIFS(N3:N44,"10~16")+COUNTIFS(N3:N44,"10~16.3")+COUNTIFS(N3:N44,"10~17")+COUNTIFS(N3:N44,"10~17.3")+COUNTIFS(N3:N44,"10~18")+COUNTIFS(N3:N44,"10~18.3")+COUNTIFS(N3:N44,"10~19")+COUNTIFS(N3:N44,"10~19.3")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10~20.3")+COUNTIFS(N3:N44,"10.3~14")+COUNTIFS(N3:N44,"10.3~14.3")+COUNTIFS(N3:N44,"10.3~15")+COUNTIFS(N3:N44,"10.3~15.3")+COUNTIFS(N3:N44,"10.3~16")+COUNTIFS(N3:N44,"10.3~16.3")+COUNTIFS(N3:N44,"10.3~17")+COUNTIFS(N3:N44,"10.3~17.3")+COUNTIFS(N3:N44,"10.3~18")+COUNTIFS(N3:N44,"10.3~18.3")+COUNTIFS(N3:N44,"10.3~19")+COUNTIFS(N3:N44,"10.3~19.3")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"10.3~20.3")+COUNTIFS(N3:N44,"11~14")+COUNTIFS(N3:N44,"11~15")+COUNTIFS(N3:N44,"11~16")+COUNTIFS(N3:N44,"11~17")+COUNTIFS(N3:N44,"11~18")+COUNTIFS(N3:N44,"11~19")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~14.3")+COUNTIFS(N3:N44,"11.3~15.3")+COUNTIFS(N3:N44,"11.3~16.3")+COUNTIFS(N3:N44,"11.3~17")+COUNTIFS(N3:N44,"11.3~17.3")+COUNTIFS(N3:N44,"11.3~18.3")+COUNTIFS(N3:N44,"11.3~19.3")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~15")+COUNTIFS(N3:N44,"12~16")+COUNTIFS(N3:N44,"12~17")+COUNTIFS(N3:N44,"12~18")+COUNTIFS(N3:N44,"12~19")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~15.3")+COUNTIFS(N3:N44,"12~16.3")+COUNTIFS(N3:N44,"12~17.3")+COUNTIFS(N3:N44,"12~18.3")+COUNTIFS(N3:N44,"12~19.3")+COUNTIFS(N3:N44,"12~20.3")+COUNTIFS(N3:N44,"12~21.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~15")+COUNTIFS(N3:N44,"12.3~16")+COUNTIFS(N3:N44,"12.3~17")+COUNTIFS(N3:N44,"12.3~18")+COUNTIFS(N3:N44,"12.3~19")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z5" s="65">
+      <c r="Z5" s="201">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AA5" s="65">
+      <c r="AA5" s="201">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AB5" s="65">
+      <c r="AB5" s="201">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AC5" s="65">
+      <c r="AC5" s="201">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AD5" s="65">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="201">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AE5" s="65">
+      <c r="AE5" s="201">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="219"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="219"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="191"/>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
@@ -2638,20 +2650,20 @@
         <f t="array" ref="V6">_xlfn.IFS(U6&gt;15,"O",U6=15,"O",U6&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
+      <c r="X6" s="208"/>
+      <c r="Y6" s="201"/>
+      <c r="Z6" s="201"/>
+      <c r="AA6" s="201"/>
+      <c r="AB6" s="201"/>
+      <c r="AC6" s="201"/>
+      <c r="AD6" s="201"/>
+      <c r="AE6" s="201"/>
     </row>
     <row r="7" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="73"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="31" t="s">
         <v>119</v>
       </c>
@@ -2675,10 +2687,10 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="72" t="s">
+      <c r="L7" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="73"/>
+      <c r="M7" s="186"/>
       <c r="N7" s="37" t="s">
         <v>41</v>
       </c>
@@ -2697,44 +2709,44 @@
         <v>41</v>
       </c>
       <c r="U7" s="6"/>
-      <c r="X7" s="81" t="s">
+      <c r="X7" s="217" t="s">
         <v>78</v>
       </c>
-      <c r="Y7" s="70">
+      <c r="Y7" s="209">
         <f t="shared" ref="Y7:AE7" si="2">COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")
 +COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")
 +COUNTIFS(C7:C44,"13.3~20")+COUNTIFS(C7:C44,"13.3~21")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~20")+COUNTIFS(C7:C44,"14~21")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~20")+COUNTIFS(C7:C44,"14.3~20.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~20")+COUNTIFS(C7:C44,"15~21")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~20")+COUNTIFS(C7:C44,"15.3~21")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~20")+COUNTIFS(C7:C44,"16~21")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~20")+COUNTIFS(C7:C44,"16.3~21")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~20")+COUNTIFS(C7:C44,"17~21")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~20")+COUNTIFS(C7:C44,"18~21")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")
 +COUNTIFS(N3:N44,"13.3~20")+COUNTIFS(N3:N44,"13.3~21")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~20")+COUNTIFS(N3:N44,"14~21")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~20")+COUNTIFS(N3:N44,"14.3~20.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~20")+COUNTIFS(N3:N44,"15~21")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~20")+COUNTIFS(N3:N44,"15.3~21")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~20")+COUNTIFS(N3:N44,"16~21")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~20")+COUNTIFS(N3:N44,"16.3~21")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~20")+COUNTIFS(N3:N44,"17~21")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~20")+COUNTIFS(N3:N44,"18~21")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>7</v>
       </c>
-      <c r="Z7" s="70">
+      <c r="Z7" s="209">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA7" s="70">
+      <c r="AA7" s="209">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AB7" s="70">
+      <c r="AB7" s="209">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AC7" s="209">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AC7" s="70">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="AD7" s="70">
+      <c r="AD7" s="209">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AE7" s="70">
+      <c r="AE7" s="209">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="187"/>
+      <c r="B8" s="188"/>
       <c r="C8" s="36"/>
       <c r="D8" s="30">
         <v>8</v>
@@ -2760,8 +2772,8 @@
         <f t="array" ref="K8">_xlfn.IFS(J8=40,"O",J8&lt;40,"LOW",J8&gt;40,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L8" s="74"/>
-      <c r="M8" s="75"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="188"/>
       <c r="N8" s="38">
         <v>8</v>
       </c>
@@ -2785,20 +2797,20 @@
         <f t="array" ref="V8">_xlfn.IFS(U8&gt;15,"O",U8=15,"O",U8&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
+      <c r="X8" s="218"/>
+      <c r="Y8" s="210"/>
+      <c r="Z8" s="210"/>
+      <c r="AA8" s="210"/>
+      <c r="AB8" s="210"/>
+      <c r="AC8" s="210"/>
+      <c r="AD8" s="210"/>
+      <c r="AE8" s="210"/>
     </row>
     <row r="9" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="224" t="s">
+      <c r="A9" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="224"/>
+      <c r="B9" s="211"/>
       <c r="C9" s="39" t="s">
         <v>85</v>
       </c>
@@ -2822,10 +2834,10 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="72" t="s">
+      <c r="L9" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="73"/>
+      <c r="M9" s="186"/>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
@@ -2836,41 +2848,41 @@
         <v>39</v>
       </c>
       <c r="U9" s="6"/>
-      <c r="X9" s="76" t="s">
+      <c r="X9" s="212" t="s">
         <v>79</v>
       </c>
-      <c r="Y9" s="78">
+      <c r="Y9" s="214">
         <f>COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"11.3~22")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"11.3~22")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12.3~21.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~21.3")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"14.3~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~21.3")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="Z9" s="80">
+      <c r="Z9" s="216">
         <f t="shared" ref="Z9:AE9" si="3">COUNTIFS(D7:D44,"11.3~21.3")+COUNTIFS(D7:D44,"11.3~22.3")+COUNTIFS(D7:D44,"11.3~22")+COUNTIFS(D7:D44,"12~21.3")+COUNTIFS(D7:D44,"12~22")+COUNTIFS(D7:D44,"12.3~22.3")+COUNTIFS(O3:O44,"11.3~21.3")+COUNTIFS(O3:O44,"11.3~22.3")+COUNTIFS(O3:O44,"11.3~22")+COUNTIFS(O3:O44,"12~22")+COUNTIFS(O3:O44,"12.3~21.3")+COUNTIFS(O3:O44,"12.3~22.3")+COUNTIFS(D7:D44,"13.3~21.3")+COUNTIFS(D7:D44,"13.3~22")+COUNTIFS(D7:D44,"13.3~22.3")+COUNTIFS(D7:D44,"14~21.3")+COUNTIFS(D7:D44,"14~22")+COUNTIFS(D7:D44,"14~22.3")+COUNTIFS(D7:D44,"14.3~21.3")+COUNTIFS(D7:D44,"14.3~22.3")+COUNTIFS(D7:D44,"14.3~22")+COUNTIFS(D7:D44,"15~21.3")+COUNTIFS(D7:D44,"15~22")+COUNTIFS(D7:D44,"15~22.3")+COUNTIFS(D7:D44,"15.3~21.3")+COUNTIFS(D7:D44,"15.3~22")+COUNTIFS(D7:D44,"15.3~22.3")+COUNTIFS(D7:D44,"16~21.3")+COUNTIFS(D7:D44,"16~22")+COUNTIFS(D7:D44,"16~22.3")+COUNTIFS(D7:D44,"16.3~21.3")+COUNTIFS(D7:D44,"16.3~22")+COUNTIFS(D7:D44,"16.3~22.3")+COUNTIFS(D7:D44,"17~21.3")+COUNTIFS(D7:D44,"17~22")+COUNTIFS(D7:D44,"17~22.3")+COUNTIFS(D7:D44,"18~21.3")+COUNTIFS(D7:D44,"18~22")+COUNTIFS(D7:D44,"18~22.3")+COUNTIFS(O3:O44,"13.3~21.3")+COUNTIFS(O3:O44,"13.3~22")+COUNTIFS(O3:O44,"13.3~22.3")+COUNTIFS(O3:O44,"14~21.3")+COUNTIFS(O3:O44,"14~22")+COUNTIFS(O3:O44,"14~22.3")+COUNTIFS(O3:O44,"14.3~21.3")+COUNTIFS(O3:O44,"14.3~22")+COUNTIFS(O3:O44,"14.3~22.3")+COUNTIFS(O3:O44,"15~21.3")+COUNTIFS(O3:O44,"15~22")+COUNTIFS(O3:O44,"15~22.3")+COUNTIFS(O3:O44,"15.3~21.3")+COUNTIFS(O3:O44,"15.3~22")+COUNTIFS(O3:O44,"15.3~22.3")+COUNTIFS(O3:O44,"16~21.3")+COUNTIFS(O3:O44,"16~22")+COUNTIFS(O3:O44,"16~22.3")+COUNTIFS(O3:O44,"16.3~21.3")+COUNTIFS(O3:O44,"16.3~22")+COUNTIFS(O3:O44,"16.3~22.3")+COUNTIFS(O3:O44,"17~21.3")+COUNTIFS(O3:O44,"17~22")+COUNTIFS(O3:O44,"17~22.3")+COUNTIFS(O3:O44,"18~21.3")+COUNTIFS(O3:O44,"18~22")+COUNTIFS(O3:O44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="AA9" s="80">
+      <c r="AA9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AB9" s="80">
+      <c r="AB9" s="216">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AC9" s="80">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AD9" s="80">
+      <c r="AD9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AE9" s="80">
+      <c r="AE9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="224"/>
-      <c r="B10" s="224"/>
+      <c r="A10" s="211"/>
+      <c r="B10" s="211"/>
       <c r="C10" s="40">
         <v>9</v>
       </c>
@@ -2896,8 +2908,8 @@
         <f t="array" ref="K10">_xlfn.IFS(J10=46,"O",J10&lt;46,"LOW",J10&gt;46,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L10" s="74"/>
-      <c r="M10" s="75"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="188"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
@@ -2913,20 +2925,20 @@
         <f t="array" ref="V10">_xlfn.IFS(U10&gt;15,"O",U10=15,"O",U10&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
+      <c r="X10" s="213"/>
+      <c r="Y10" s="215"/>
+      <c r="Z10" s="215"/>
+      <c r="AA10" s="215"/>
+      <c r="AB10" s="215"/>
+      <c r="AC10" s="215"/>
+      <c r="AD10" s="215"/>
+      <c r="AE10" s="215"/>
     </row>
     <row r="11" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="220" t="s">
+      <c r="A11" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="221"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="31" t="s">
         <v>119</v>
       </c>
@@ -2950,10 +2962,10 @@
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="64"/>
+      <c r="M11" s="184"/>
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="32" t="s">
@@ -2970,41 +2982,41 @@
         <v>45</v>
       </c>
       <c r="U11" s="6"/>
-      <c r="X11" s="67" t="s">
+      <c r="X11" s="208" t="s">
         <v>81</v>
       </c>
-      <c r="Y11" s="65">
+      <c r="Y11" s="201">
         <f t="shared" ref="Y11:AE11" si="4">COUNT(C10,C12,C14,C16,C18,C28,C30,C32,C34,C36,C38,C40,C42,C44,C20,C22,N4,N6,N8,N10,N12,N14,N16,N18,N20,N22,N28,N30,N32,N34,N36,N38,N40,N42,N44)</f>
         <v>11</v>
       </c>
-      <c r="Z11" s="65">
+      <c r="Z11" s="201">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AA11" s="65">
+      <c r="AA11" s="201">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AB11" s="65">
+      <c r="AB11" s="201">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AC11" s="65">
+      <c r="AC11" s="201">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AD11" s="65">
+      <c r="AD11" s="201">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AE11" s="65">
+      <c r="AE11" s="201">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="222"/>
-      <c r="B12" s="223"/>
+      <c r="A12" s="204"/>
+      <c r="B12" s="205"/>
       <c r="C12" s="36"/>
       <c r="D12" s="41">
         <v>9</v>
@@ -3028,8 +3040,8 @@
         <f t="array" ref="K12">_xlfn.IFS(J12=46,"O",J12&lt;46,"LOW",J12&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="41">
@@ -3051,20 +3063,20 @@
         <f t="array" ref="V12">_xlfn.IFS(U12&gt;15,"O",U12=15,"O",U12&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
+      <c r="X12" s="208"/>
+      <c r="Y12" s="201"/>
+      <c r="Z12" s="201"/>
+      <c r="AA12" s="201"/>
+      <c r="AB12" s="201"/>
+      <c r="AC12" s="201"/>
+      <c r="AD12" s="201"/>
+      <c r="AE12" s="201"/>
     </row>
     <row r="13" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="220" t="s">
+      <c r="A13" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="221"/>
+      <c r="B13" s="203"/>
       <c r="C13" s="32" t="s">
         <v>84</v>
       </c>
@@ -3088,10 +3100,10 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="72" t="s">
+      <c r="L13" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="73"/>
+      <c r="M13" s="186"/>
       <c r="N13" s="32" t="s">
         <v>45</v>
       </c>
@@ -3114,8 +3126,8 @@
       <c r="U13" s="6"/>
     </row>
     <row r="14" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="222"/>
-      <c r="B14" s="223"/>
+      <c r="A14" s="204"/>
+      <c r="B14" s="205"/>
       <c r="C14" s="41">
         <v>9</v>
       </c>
@@ -3137,8 +3149,8 @@
         <f t="array" ref="K14">_xlfn.IFS(J14=46,"O",J14&lt;46,"LOW",J14&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L14" s="74"/>
-      <c r="M14" s="75"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="188"/>
       <c r="N14" s="41">
         <v>5</v>
       </c>
@@ -3164,43 +3176,43 @@
         <f t="array" ref="V14">_xlfn.IFS(U14&gt;15,"O",U14=15,"O",U14&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X14" s="83" t="s">
+      <c r="X14" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="Y14" s="65">
+      <c r="Y14" s="201">
         <f t="shared" ref="Y14:AE14" si="5">COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(C7:C44,"13~22.3")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"17.3~22.3")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(C7:C44,"18.3~22.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(N3:N44,"13~22.3")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"17.3~22.3")+COUNTIFS(N3:N44,"18~22.3")+COUNTIFS(N3:N44,"18.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z14" s="65">
+      <c r="Z14" s="201">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AA14" s="65">
+      <c r="AA14" s="201">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AB14" s="65">
+      <c r="AB14" s="201">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AC14" s="65">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="201">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AD14" s="65">
+      <c r="AD14" s="201">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AE14" s="65">
+      <c r="AE14" s="201">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="73"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="31" t="s">
         <v>119</v>
       </c>
@@ -3224,10 +3236,10 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="72" t="s">
+      <c r="L15" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="73"/>
+      <c r="M15" s="186"/>
       <c r="N15" s="32" t="s">
         <v>37</v>
       </c>
@@ -3244,18 +3256,18 @@
         <v>39</v>
       </c>
       <c r="U15" s="6"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
+      <c r="X15" s="206"/>
+      <c r="Y15" s="201"/>
+      <c r="Z15" s="201"/>
+      <c r="AA15" s="201"/>
+      <c r="AB15" s="201"/>
+      <c r="AC15" s="201"/>
+      <c r="AD15" s="201"/>
+      <c r="AE15" s="201"/>
     </row>
     <row r="16" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="75"/>
+      <c r="A16" s="187"/>
+      <c r="B16" s="188"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
@@ -3279,8 +3291,8 @@
         <f t="array" ref="K16">_xlfn.IFS(J16=46,"O",J16&lt;46,"LOW",J16&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L16" s="74"/>
-      <c r="M16" s="75"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="188"/>
       <c r="N16" s="41">
         <v>4</v>
       </c>
@@ -3302,43 +3314,43 @@
         <f t="array" ref="V16">_xlfn.IFS(U16&gt;15,"O",U16=15,"O",U16&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X16" s="83" t="s">
+      <c r="X16" s="206" t="s">
         <v>92</v>
       </c>
-      <c r="Y16" s="84">
+      <c r="Y16" s="207">
         <f t="shared" ref="Y16:AE16" si="6">(Y14*0.25)*0.83</f>
         <v>1.0374999999999999</v>
       </c>
-      <c r="Z16" s="84">
+      <c r="Z16" s="207">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AA16" s="84">
+      <c r="AA16" s="207">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AB16" s="84">
+      <c r="AB16" s="207">
         <f t="shared" si="6"/>
-        <v>1.0374999999999999</v>
-      </c>
-      <c r="AC16" s="84">
+        <v>0.83</v>
+      </c>
+      <c r="AC16" s="207">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AD16" s="84">
+      <c r="AD16" s="207">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AE16" s="84">
+      <c r="AE16" s="207">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="220" t="s">
+      <c r="A17" s="202" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="221"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="31" t="s">
         <v>119</v>
       </c>
@@ -3362,10 +3374,10 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="220" t="s">
+      <c r="L17" s="202" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="221"/>
+      <c r="M17" s="203"/>
       <c r="N17" s="35" t="s">
         <v>43</v>
       </c>
@@ -3381,18 +3393,18 @@
       <c r="T17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="84"/>
-      <c r="AE17" s="84"/>
+      <c r="X17" s="206"/>
+      <c r="Y17" s="207"/>
+      <c r="Z17" s="207"/>
+      <c r="AA17" s="207"/>
+      <c r="AB17" s="207"/>
+      <c r="AC17" s="207"/>
+      <c r="AD17" s="207"/>
+      <c r="AE17" s="207"/>
     </row>
     <row r="18" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="222"/>
-      <c r="B18" s="223"/>
+      <c r="A18" s="204"/>
+      <c r="B18" s="205"/>
       <c r="C18" s="36"/>
       <c r="D18" s="45">
         <v>10</v>
@@ -3414,8 +3426,8 @@
         <f t="array" ref="K18">_xlfn.IFS(J18=46,"O",J18&lt;46,"LOW",J18&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L18" s="222"/>
-      <c r="M18" s="223"/>
+      <c r="L18" s="204"/>
+      <c r="M18" s="205"/>
       <c r="N18" s="46">
         <v>5</v>
       </c>
@@ -3439,8 +3451,8 @@
       </c>
     </row>
     <row r="19" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85"/>
+      <c r="A19" s="198"/>
+      <c r="B19" s="198"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -3450,8 +3462,8 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="198"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -3459,31 +3471,31 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="Y19" s="86" t="s">
+      <c r="Y19" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="Z19" s="86" t="s">
+      <c r="Z19" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="AA19" s="86" t="s">
+      <c r="AA19" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="AB19" s="86" t="s">
+      <c r="AB19" s="199" t="s">
         <v>62</v>
       </c>
-      <c r="AC19" s="86" t="s">
+      <c r="AC19" s="199" t="s">
         <v>63</v>
       </c>
-      <c r="AD19" s="86" t="s">
+      <c r="AD19" s="199" t="s">
         <v>99</v>
       </c>
-      <c r="AE19" s="86" t="s">
+      <c r="AE19" s="199" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="85"/>
-      <c r="B20" s="85"/>
+      <c r="A20" s="198"/>
+      <c r="B20" s="198"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3499,8 +3511,8 @@
         <f t="array" ref="K20">_xlfn.IFS(J20=46,"O",J20&lt;46,"LOW",J20&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="198"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -3516,17 +3528,17 @@
         <f t="array" ref="V20">_xlfn.IFS(U20&gt;15,"O",U20=15,"O",U20&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="87"/>
-      <c r="AC20" s="87"/>
-      <c r="AD20" s="87"/>
-      <c r="AE20" s="87"/>
+      <c r="Y20" s="200"/>
+      <c r="Z20" s="200"/>
+      <c r="AA20" s="200"/>
+      <c r="AB20" s="200"/>
+      <c r="AC20" s="200"/>
+      <c r="AD20" s="200"/>
+      <c r="AE20" s="200"/>
     </row>
     <row r="21" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
+      <c r="A21" s="198"/>
+      <c r="B21" s="198"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -3536,8 +3548,8 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="198"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -3547,28 +3559,28 @@
       <c r="T21" s="6"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="Y21" s="88" t="s">
+      <c r="Y21" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="88">
+      <c r="Z21" s="189">
         <v>3</v>
       </c>
-      <c r="AA21" s="88">
+      <c r="AA21" s="189">
         <v>2</v>
       </c>
-      <c r="AB21" s="88">
+      <c r="AB21" s="189">
         <f>Z21-AA21</f>
         <v>1</v>
       </c>
-      <c r="AC21" s="88"/>
-      <c r="AD21" s="88"/>
-      <c r="AE21" s="88">
+      <c r="AC21" s="189"/>
+      <c r="AD21" s="189"/>
+      <c r="AE21" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
+      <c r="A22" s="198"/>
+      <c r="B22" s="198"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -3584,8 +3596,8 @@
         <f t="array" ref="K22">_xlfn.IFS(J22=46,"O",J22&lt;46,"LOW",J22&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
+      <c r="L22" s="198"/>
+      <c r="M22" s="198"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -3601,13 +3613,13 @@
         <f t="array" ref="V22">_xlfn.IFS(U22&gt;15,"O",U22=15,"O",U22&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="89"/>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="89"/>
+      <c r="Y22" s="190"/>
+      <c r="Z22" s="190"/>
+      <c r="AA22" s="190"/>
+      <c r="AB22" s="190"/>
+      <c r="AC22" s="190"/>
+      <c r="AD22" s="190"/>
+      <c r="AE22" s="190"/>
     </row>
     <row r="23" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
@@ -3630,24 +3642,24 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-      <c r="Y23" s="88" t="s">
+      <c r="Y23" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="Z23" s="88">
+      <c r="Z23" s="189">
         <v>4</v>
       </c>
-      <c r="AA23" s="88">
+      <c r="AA23" s="189">
         <v>3</v>
       </c>
-      <c r="AB23" s="88">
+      <c r="AB23" s="189">
         <f>Z23-AA23</f>
         <v>1</v>
       </c>
-      <c r="AC23" s="88"/>
-      <c r="AD23" s="88">
+      <c r="AC23" s="189"/>
+      <c r="AD23" s="189">
         <v>3</v>
       </c>
-      <c r="AE23" s="88">
+      <c r="AE23" s="189">
         <v>0</v>
       </c>
     </row>
@@ -3672,20 +3684,20 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="89"/>
+      <c r="Y24" s="190"/>
+      <c r="Z24" s="190"/>
+      <c r="AA24" s="190"/>
+      <c r="AB24" s="190"/>
+      <c r="AC24" s="190"/>
+      <c r="AD24" s="190"/>
+      <c r="AE24" s="190"/>
     </row>
     <row r="25" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="57">
+      <c r="A25" s="194">
         <f>A1</f>
-        <v>45424</v>
-      </c>
-      <c r="B25" s="58"/>
+        <v>45425</v>
+      </c>
+      <c r="B25" s="195"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3707,17 +3719,17 @@
       <c r="I25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="68" t="s">
+      <c r="J25" s="192" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="90" t="s">
+      <c r="K25" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="57">
+      <c r="L25" s="194">
         <f>A1</f>
-        <v>45424</v>
-      </c>
-      <c r="M25" s="58"/>
+        <v>45425</v>
+      </c>
+      <c r="M25" s="195"/>
       <c r="N25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3739,30 +3751,30 @@
       <c r="T25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="59" t="s">
+      <c r="U25" s="196" t="s">
         <v>67</v>
       </c>
-      <c r="V25" s="60" t="s">
+      <c r="V25" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="Y25" s="88" t="s">
+      <c r="Y25" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="Z25" s="88">
+      <c r="Z25" s="189">
         <v>3</v>
       </c>
-      <c r="AA25" s="88">
+      <c r="AA25" s="189">
         <v>2</v>
       </c>
-      <c r="AB25" s="88">
+      <c r="AB25" s="189">
         <f>Z25-AA25</f>
         <v>1</v>
       </c>
-      <c r="AC25" s="88"/>
-      <c r="AD25" s="88">
+      <c r="AC25" s="189"/>
+      <c r="AD25" s="189">
         <v>4</v>
       </c>
-      <c r="AE25" s="88">
+      <c r="AE25" s="189">
         <v>0</v>
       </c>
     </row>
@@ -3776,34 +3788,34 @@
       </c>
       <c r="C26" s="7">
         <f>C2</f>
-        <v>45424</v>
+        <v>45425</v>
       </c>
       <c r="D26" s="8">
         <f>C26+1</f>
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="E26" s="8">
         <f>C26+2</f>
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="F26" s="7">
         <f>C26+3</f>
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="G26" s="8">
         <f>C26+4</f>
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="H26" s="8">
         <f>C26+5</f>
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="I26" s="9">
         <f>C26+6</f>
-        <v>45430</v>
-      </c>
-      <c r="J26" s="68"/>
-      <c r="K26" s="90"/>
+        <v>45431</v>
+      </c>
+      <c r="J26" s="192"/>
+      <c r="K26" s="193"/>
       <c r="L26" s="13">
         <f>WEEKNUM(L25,1)</f>
         <v>20</v>
@@ -3813,47 +3825,47 @@
       </c>
       <c r="N26" s="10">
         <f>C2</f>
-        <v>45424</v>
+        <v>45425</v>
       </c>
       <c r="O26" s="11">
         <f>N26+1</f>
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="P26" s="11">
         <f>N26+2</f>
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="Q26" s="55">
         <f>N26+3</f>
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="R26" s="11">
         <f>N26+4</f>
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="S26" s="11">
         <f>N26+5</f>
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="T26" s="12">
         <f>N26+6</f>
-        <v>45430</v>
-      </c>
-      <c r="U26" s="59"/>
-      <c r="V26" s="60"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="89"/>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="89"/>
-      <c r="AE26" s="89"/>
+        <v>45431</v>
+      </c>
+      <c r="U26" s="196"/>
+      <c r="V26" s="197"/>
+      <c r="Y26" s="190"/>
+      <c r="Z26" s="190"/>
+      <c r="AA26" s="190"/>
+      <c r="AB26" s="190"/>
+      <c r="AC26" s="190"/>
+      <c r="AD26" s="190"/>
+      <c r="AE26" s="190"/>
     </row>
     <row r="27" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="184"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
@@ -3867,10 +3879,10 @@
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="64" t="s">
+      <c r="L27" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="219"/>
+      <c r="M27" s="191"/>
       <c r="N27" s="32" t="s">
         <v>42</v>
       </c>
@@ -3886,30 +3898,30 @@
       <c r="T27" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="Y27" s="88" t="s">
+      <c r="Y27" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="Z27" s="88">
+      <c r="Z27" s="189">
         <v>4</v>
       </c>
-      <c r="AA27" s="88">
+      <c r="AA27" s="189">
         <v>3</v>
       </c>
-      <c r="AB27" s="88">
+      <c r="AB27" s="189">
         <f>Z27-AA27</f>
         <v>1</v>
       </c>
-      <c r="AC27" s="88"/>
-      <c r="AD27" s="88">
+      <c r="AC27" s="189"/>
+      <c r="AD27" s="189">
         <v>1</v>
       </c>
-      <c r="AE27" s="88">
+      <c r="AE27" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="184"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
@@ -3927,8 +3939,8 @@
         <f t="array" ref="K28">_xlfn.IFS(J28&gt;15,"O",J28=15,"O",J28&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="219"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="191"/>
       <c r="N28" s="41">
         <v>7.5</v>
       </c>
@@ -3950,19 +3962,19 @@
         <f t="array" ref="V28">_xlfn.IFS(U28&gt;15,"O",U28=15,"O",U28&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
-      <c r="AE28" s="89"/>
+      <c r="Y28" s="190"/>
+      <c r="Z28" s="190"/>
+      <c r="AA28" s="190"/>
+      <c r="AB28" s="190"/>
+      <c r="AC28" s="190"/>
+      <c r="AD28" s="190"/>
+      <c r="AE28" s="190"/>
     </row>
     <row r="29" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="184"/>
       <c r="C29" s="52" t="s">
         <v>104</v>
       </c>
@@ -3978,10 +3990,10 @@
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="64" t="s">
+      <c r="L29" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="219"/>
+      <c r="M29" s="191"/>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
@@ -3992,30 +4004,30 @@
         <v>39</v>
       </c>
       <c r="U29" s="6"/>
-      <c r="Y29" s="88" t="s">
+      <c r="Y29" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="Z29" s="88">
+      <c r="Z29" s="189">
         <v>3</v>
       </c>
-      <c r="AA29" s="88">
+      <c r="AA29" s="189">
         <v>2</v>
       </c>
-      <c r="AB29" s="88">
+      <c r="AB29" s="189">
         <f>Z29-AA29</f>
         <v>1</v>
       </c>
-      <c r="AC29" s="88"/>
-      <c r="AD29" s="88">
+      <c r="AC29" s="189"/>
+      <c r="AD29" s="189">
         <v>2</v>
       </c>
-      <c r="AE29" s="88">
+      <c r="AE29" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="184"/>
+      <c r="B30" s="184"/>
       <c r="C30" s="30">
         <v>8</v>
       </c>
@@ -4035,8 +4047,8 @@
         <f t="array" ref="K30">_xlfn.IFS(J30&gt;15,"O",J30=15,"O",J30&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L30" s="64"/>
-      <c r="M30" s="219"/>
+      <c r="L30" s="184"/>
+      <c r="M30" s="191"/>
       <c r="N30" s="43"/>
       <c r="O30" s="43"/>
       <c r="P30" s="43"/>
@@ -4052,19 +4064,19 @@
         <f t="array" ref="V30">_xlfn.IFS(U30&gt;15,"O",U30=15,"O",U30&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="89"/>
-      <c r="AC30" s="89"/>
-      <c r="AD30" s="89"/>
-      <c r="AE30" s="89"/>
+      <c r="Y30" s="190"/>
+      <c r="Z30" s="190"/>
+      <c r="AA30" s="190"/>
+      <c r="AB30" s="190"/>
+      <c r="AC30" s="190"/>
+      <c r="AD30" s="190"/>
+      <c r="AE30" s="190"/>
     </row>
     <row r="31" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="184"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -4078,10 +4090,10 @@
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="72" t="s">
+      <c r="L31" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="73"/>
+      <c r="M31" s="186"/>
       <c r="N31" s="39" t="s">
         <v>95</v>
       </c>
@@ -4098,30 +4110,30 @@
         <v>39</v>
       </c>
       <c r="U31" s="6"/>
-      <c r="Y31" s="88" t="s">
+      <c r="Y31" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="Z31" s="88">
+      <c r="Z31" s="189">
         <v>4</v>
       </c>
-      <c r="AA31" s="88">
+      <c r="AA31" s="189">
         <v>3</v>
       </c>
-      <c r="AB31" s="88">
+      <c r="AB31" s="189">
         <f>Z31-AA31</f>
         <v>1</v>
       </c>
-      <c r="AC31" s="88"/>
-      <c r="AD31" s="88">
+      <c r="AC31" s="189"/>
+      <c r="AD31" s="189">
         <v>3</v>
       </c>
-      <c r="AE31" s="88">
+      <c r="AE31" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
+      <c r="A32" s="184"/>
+      <c r="B32" s="184"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
@@ -4139,8 +4151,8 @@
         <f t="array" ref="K32">_xlfn.IFS(J32&gt;15,"O",J32=15,"O",J32&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L32" s="74"/>
-      <c r="M32" s="75"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="188"/>
       <c r="N32" s="40">
         <v>6.5</v>
       </c>
@@ -4162,19 +4174,19 @@
         <f t="array" ref="V32">_xlfn.IFS(U32&gt;15,"O",U32=15,"O",U32&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="89"/>
-      <c r="AB32" s="89"/>
-      <c r="AC32" s="89"/>
-      <c r="AD32" s="89"/>
-      <c r="AE32" s="89"/>
+      <c r="Y32" s="190"/>
+      <c r="Z32" s="190"/>
+      <c r="AA32" s="190"/>
+      <c r="AB32" s="190"/>
+      <c r="AC32" s="190"/>
+      <c r="AD32" s="190"/>
+      <c r="AE32" s="190"/>
     </row>
     <row r="33" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="64"/>
+      <c r="B33" s="184"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32" t="s">
         <v>37</v>
@@ -4188,18 +4200,18 @@
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="72" t="s">
+      <c r="L33" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="73"/>
+      <c r="M33" s="186"/>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
       <c r="Q33" s="32" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="R33" s="52" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="S33" s="52" t="s">
         <v>96</v>
@@ -4210,8 +4222,8 @@
       <c r="U33" s="6"/>
     </row>
     <row r="34" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
+      <c r="A34" s="184"/>
+      <c r="B34" s="184"/>
       <c r="C34" s="36"/>
       <c r="D34" s="41">
         <v>4</v>
@@ -4229,16 +4241,16 @@
         <f t="array" ref="K34">_xlfn.IFS(J34&gt;15,"O",J34=15,"O",J34&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L34" s="74"/>
-      <c r="M34" s="75"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="188"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
       <c r="Q34" s="41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R34" s="30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S34" s="30">
         <v>6</v>
@@ -4246,7 +4258,7 @@
       <c r="T34" s="36"/>
       <c r="U34" s="16">
         <f>SUM(N34:T34)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V34" s="16" t="str" cm="1">
         <f t="array" ref="V34">_xlfn.IFS(U34&gt;15,"O",U34=15,"O",U34&lt;15,"X")</f>
@@ -4254,10 +4266,10 @@
       </c>
     </row>
     <row r="35" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="64"/>
+      <c r="B35" s="184"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
@@ -4269,10 +4281,10 @@
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="64" t="s">
+      <c r="L35" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="64"/>
+      <c r="M35" s="184"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
       <c r="P35" s="32" t="s">
@@ -4291,8 +4303,8 @@
       <c r="U35" s="6"/>
     </row>
     <row r="36" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
+      <c r="A36" s="184"/>
+      <c r="B36" s="184"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -4308,8 +4320,8 @@
         <f t="array" ref="K36">_xlfn.IFS(J36&gt;15,"O",J36=15,"O",J36&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
+      <c r="L36" s="184"/>
+      <c r="M36" s="184"/>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="41">
@@ -4333,10 +4345,10 @@
       </c>
     </row>
     <row r="37" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="64"/>
+      <c r="B37" s="184"/>
       <c r="C37" s="47" t="s">
         <v>87</v>
       </c>
@@ -4358,10 +4370,10 @@
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="72" t="s">
+      <c r="L37" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="73"/>
+      <c r="M37" s="186"/>
       <c r="N37" s="32" t="s">
         <v>38</v>
       </c>
@@ -4380,8 +4392,8 @@
       <c r="U37" s="6"/>
     </row>
     <row r="38" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
+      <c r="A38" s="184"/>
+      <c r="B38" s="184"/>
       <c r="C38" s="40">
         <v>8</v>
       </c>
@@ -4407,8 +4419,8 @@
         <f t="array" ref="K38">_xlfn.IFS(J38&gt;15,"O",J38=15,"O",J38&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L38" s="74"/>
-      <c r="M38" s="75"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="188"/>
       <c r="N38" s="41">
         <v>6</v>
       </c>
@@ -4432,10 +4444,10 @@
       </c>
     </row>
     <row r="39" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="64"/>
+      <c r="B39" s="184"/>
       <c r="C39" s="31"/>
       <c r="D39" s="32" t="s">
         <v>38</v>
@@ -4455,10 +4467,10 @@
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="72" t="s">
+      <c r="L39" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="M39" s="73"/>
+      <c r="M39" s="186"/>
       <c r="N39" s="42"/>
       <c r="O39" s="42"/>
       <c r="P39" s="42"/>
@@ -4471,8 +4483,8 @@
       <c r="U39" s="6"/>
     </row>
     <row r="40" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
+      <c r="A40" s="184"/>
+      <c r="B40" s="184"/>
       <c r="C40" s="36"/>
       <c r="D40" s="41">
         <v>6</v>
@@ -4496,8 +4508,8 @@
         <f t="array" ref="K40">_xlfn.IFS(J40&gt;15,"O",J40=15,"O",J40&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L40" s="74"/>
-      <c r="M40" s="75"/>
+      <c r="L40" s="187"/>
+      <c r="M40" s="188"/>
       <c r="N40" s="43"/>
       <c r="O40" s="43"/>
       <c r="P40" s="43"/>
@@ -4515,14 +4527,14 @@
       </c>
     </row>
     <row r="41" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="91"/>
-      <c r="B41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
     </row>
     <row r="42" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="91"/>
-      <c r="B42" s="91"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
       <c r="J42" s="25">
         <f>SUM(C42:I42)</f>
         <v>0</v>
@@ -4531,8 +4543,8 @@
         <f t="array" ref="K42">_xlfn.IFS(J42&gt;15,"O",J42=15,"O",J42&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
       <c r="U42" s="25">
         <f>SUM(N42:T42)</f>
         <v>0</v>
@@ -4543,8 +4555,8 @@
       </c>
     </row>
     <row r="43" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="91"/>
-      <c r="B43" s="91"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -4554,14 +4566,14 @@
       <c r="I43" s="17"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="91"/>
-      <c r="M43" s="91"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="91"/>
-      <c r="B44" s="91"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -4577,8 +4589,8 @@
         <f t="array" ref="K44">_xlfn.IFS(J44&gt;15,"O",J44=15,"O",J44&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L44" s="91"/>
-      <c r="M44" s="91"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
       <c r="U44" s="25">
         <f>SUM(N44:T44)</f>
         <v>0</v>
@@ -4643,37 +4655,37 @@
       <c r="AI48" s="29"/>
     </row>
     <row r="49" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="91"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="92" t="s">
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="92"/>
-      <c r="E49" s="93" t="s">
+      <c r="D49" s="183"/>
+      <c r="E49" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93" t="s">
+      <c r="F49" s="178"/>
+      <c r="G49" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93" t="s">
+      <c r="H49" s="178"/>
+      <c r="I49" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="93"/>
-      <c r="K49" s="93" t="s">
+      <c r="J49" s="178"/>
+      <c r="K49" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="93"/>
-      <c r="M49" s="93"/>
-      <c r="N49" s="93" t="s">
+      <c r="L49" s="178"/>
+      <c r="M49" s="178"/>
+      <c r="N49" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="93"/>
-      <c r="P49" s="94" t="s">
+      <c r="O49" s="178"/>
+      <c r="P49" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="Q49" s="94"/>
+      <c r="Q49" s="179"/>
       <c r="S49" s="48"/>
       <c r="T49" s="48"/>
       <c r="U49" s="48"/>
@@ -4693,44 +4705,44 @@
       <c r="AI49" s="29"/>
     </row>
     <row r="50" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="91"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="95">
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="180">
         <f>C2</f>
-        <v>45424</v>
-      </c>
-      <c r="D50" s="95"/>
-      <c r="E50" s="96">
+        <v>45425</v>
+      </c>
+      <c r="D50" s="180"/>
+      <c r="E50" s="181">
         <f>C50+1</f>
-        <v>45425</v>
-      </c>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96">
+        <v>45426</v>
+      </c>
+      <c r="F50" s="181"/>
+      <c r="G50" s="181">
         <f>C50+2</f>
-        <v>45426</v>
-      </c>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96">
+        <v>45427</v>
+      </c>
+      <c r="H50" s="181"/>
+      <c r="I50" s="181">
         <f>C50+3</f>
-        <v>45427</v>
-      </c>
-      <c r="J50" s="96"/>
-      <c r="K50" s="96">
+        <v>45428</v>
+      </c>
+      <c r="J50" s="181"/>
+      <c r="K50" s="181">
         <f>C50+4</f>
-        <v>45428</v>
-      </c>
-      <c r="L50" s="96"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="96">
+        <v>45429</v>
+      </c>
+      <c r="L50" s="181"/>
+      <c r="M50" s="181"/>
+      <c r="N50" s="181">
         <f>C50+5</f>
-        <v>45429</v>
-      </c>
-      <c r="O50" s="96"/>
-      <c r="P50" s="97">
+        <v>45430</v>
+      </c>
+      <c r="O50" s="181"/>
+      <c r="P50" s="182">
         <f>C50+6</f>
-        <v>45430</v>
-      </c>
-      <c r="Q50" s="97"/>
+        <v>45431</v>
+      </c>
+      <c r="Q50" s="182"/>
       <c r="S50" s="48"/>
       <c r="T50" s="48"/>
       <c r="U50" s="48"/>
@@ -4750,46 +4762,46 @@
       <c r="AI50" s="27"/>
     </row>
     <row r="51" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="99" t="s">
+      <c r="A51" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="99"/>
-      <c r="C51" s="98">
+      <c r="B51" s="177"/>
+      <c r="C51" s="176">
         <f>SUM(C8,C10,C12,C14,C16,C18,C20,C22,C28,C30,C32,C34,C36,C38,C40,N4,N6,N8,N10,N12,N14,N16,N18,N28,N30,N32,N34,N36,N38,N40,C42,C44,N42,N44,N20,N22,Y16)</f>
         <v>77.037499999999994</v>
       </c>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98">
+      <c r="D51" s="176"/>
+      <c r="E51" s="176">
         <f>SUM(D8,D9,D12,D14,D16,D18,D20,D22,D28,D30,D32,D34,D36,D38,D40,D42,D44,O4,O6,O8,O10,O12,O14,O16,O18,O20,O22,O28,O30,O32,O34,O36,O38,O40,O42,O44,Z16)</f>
         <v>69.537499999999994</v>
       </c>
-      <c r="F51" s="98"/>
-      <c r="G51" s="98">
+      <c r="F51" s="176"/>
+      <c r="G51" s="176">
         <f>SUM(E8,E10,E12,E14,E16,E18,E20,E22,E28,E30,E32,E34,E36,E44,E38,E40,E42,P4,P6,P8,P10,P12,P14,P16,P18,P20,P22,P28,P30,P32,P34,P36,P38,P40,P42,P44,AA16)</f>
         <v>68.037499999999994</v>
       </c>
-      <c r="H51" s="98"/>
-      <c r="I51" s="98">
+      <c r="H51" s="176"/>
+      <c r="I51" s="176">
         <f>SUM(F8,F10,F12,F14,F16,F18,F20,F22,F28,F30,F32,F34,F36,F38,F40,F42,F44,Q4,Q6,Q8,Q10,Q12,Q14,Q16,Q18,Q20,Q22,Q28,Q30,Q32,Q34,Q36,Q38,Q40,Q42,Q44,AB16)</f>
-        <v>80.537499999999994</v>
-      </c>
-      <c r="J51" s="98"/>
-      <c r="K51" s="98">
+        <v>77.33</v>
+      </c>
+      <c r="J51" s="176"/>
+      <c r="K51" s="176">
         <f>SUM(G8,G10,G12,G14,G16,G18,G20,G22,G28,G30,G32,G34,G36,G38,G40,G42,G44,R4,R6,R8,R10,R12,R14,R16,R18,R20,R22,R28,R30,R32,R34,R36,R38,R40,R42,R44,AC16)</f>
-        <v>77.245000000000005</v>
-      </c>
-      <c r="L51" s="98"/>
-      <c r="M51" s="98"/>
-      <c r="N51" s="98">
+        <v>83.245000000000005</v>
+      </c>
+      <c r="L51" s="176"/>
+      <c r="M51" s="176"/>
+      <c r="N51" s="176">
         <f>SUM(H8,H10,H12,H14,H16,H18,H20,H22,H28,H30,H32,H34,H36,H38,H40,H42,H44,S4,S6,S8,S10,S12,S14,S16,S18,S20,S22,S28,S30,S32,S34,S36,S38,S40,S42,S44,AD16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="O51" s="98"/>
-      <c r="P51" s="98">
+      <c r="O51" s="176"/>
+      <c r="P51" s="176">
         <f>SUM(I8,I10,I12,I14,I16,I18,I20,I22,I28,I30,I32,I34,I36,I38,I40,I42,I44,T4,T6,T8,T10,T12,T14,T16,T18,T20,T22,T28,T30,T32,T34,T36,T38,T40,T42,T44,AE16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="Q51" s="98"/>
+      <c r="Q51" s="176"/>
       <c r="S51" s="49"/>
       <c r="T51" s="50"/>
       <c r="U51" s="50"/>
@@ -4809,23 +4821,23 @@
       <c r="AI51" s="27"/>
     </row>
     <row r="52" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="99"/>
-      <c r="B52" s="99"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="98"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="98"/>
-      <c r="L52" s="98"/>
-      <c r="M52" s="98"/>
-      <c r="N52" s="98"/>
-      <c r="O52" s="98"/>
-      <c r="P52" s="98"/>
-      <c r="Q52" s="98"/>
+      <c r="A52" s="177"/>
+      <c r="B52" s="177"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="176"/>
+      <c r="E52" s="176"/>
+      <c r="F52" s="176"/>
+      <c r="G52" s="176"/>
+      <c r="H52" s="176"/>
+      <c r="I52" s="176"/>
+      <c r="J52" s="176"/>
+      <c r="K52" s="176"/>
+      <c r="L52" s="176"/>
+      <c r="M52" s="176"/>
+      <c r="N52" s="176"/>
+      <c r="O52" s="176"/>
+      <c r="P52" s="176"/>
+      <c r="Q52" s="176"/>
       <c r="S52" s="49"/>
       <c r="T52" s="50"/>
       <c r="U52" s="50"/>
@@ -4845,23 +4857,23 @@
       <c r="AI52" s="27"/>
     </row>
     <row r="53" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="99"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="98"/>
-      <c r="L53" s="98"/>
-      <c r="M53" s="98"/>
-      <c r="N53" s="98"/>
-      <c r="O53" s="98"/>
-      <c r="P53" s="98"/>
-      <c r="Q53" s="98"/>
+      <c r="A53" s="177"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="176"/>
+      <c r="E53" s="176"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="176"/>
+      <c r="H53" s="176"/>
+      <c r="I53" s="176"/>
+      <c r="J53" s="176"/>
+      <c r="K53" s="176"/>
+      <c r="L53" s="176"/>
+      <c r="M53" s="176"/>
+      <c r="N53" s="176"/>
+      <c r="O53" s="176"/>
+      <c r="P53" s="176"/>
+      <c r="Q53" s="176"/>
       <c r="S53" s="49"/>
       <c r="T53" s="50"/>
       <c r="U53" s="50"/>
@@ -4881,39 +4893,39 @@
       <c r="AI53"/>
     </row>
     <row r="54" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="99" t="s">
+      <c r="A54" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="99"/>
-      <c r="C54" s="100">
+      <c r="B54" s="177"/>
+      <c r="C54" s="169">
         <v>1095960</v>
       </c>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100">
+      <c r="D54" s="169"/>
+      <c r="E54" s="169">
         <v>870450</v>
       </c>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100">
+      <c r="F54" s="169"/>
+      <c r="G54" s="169">
         <v>1020450</v>
       </c>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100">
+      <c r="H54" s="169"/>
+      <c r="I54" s="169">
         <v>1026450</v>
       </c>
-      <c r="J54" s="100"/>
-      <c r="K54" s="101">
+      <c r="J54" s="169"/>
+      <c r="K54" s="175">
         <v>1032450</v>
       </c>
-      <c r="L54" s="101"/>
-      <c r="M54" s="101"/>
-      <c r="N54" s="100">
+      <c r="L54" s="175"/>
+      <c r="M54" s="175"/>
+      <c r="N54" s="169">
         <v>1056450</v>
       </c>
-      <c r="O54" s="100"/>
-      <c r="P54" s="100">
+      <c r="O54" s="169"/>
+      <c r="P54" s="169">
         <v>960450</v>
       </c>
-      <c r="Q54" s="100"/>
+      <c r="Q54" s="169"/>
       <c r="S54" s="49"/>
       <c r="T54" s="50"/>
       <c r="U54" s="50"/>
@@ -4933,23 +4945,23 @@
       <c r="AI54"/>
     </row>
     <row r="55" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="99"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="100"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="101"/>
-      <c r="L55" s="101"/>
-      <c r="M55" s="101"/>
-      <c r="N55" s="100"/>
-      <c r="O55" s="100"/>
-      <c r="P55" s="100"/>
-      <c r="Q55" s="100"/>
+      <c r="A55" s="177"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="169"/>
+      <c r="H55" s="169"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="169"/>
+      <c r="K55" s="175"/>
+      <c r="L55" s="175"/>
+      <c r="M55" s="175"/>
+      <c r="N55" s="169"/>
+      <c r="O55" s="169"/>
+      <c r="P55" s="169"/>
+      <c r="Q55" s="169"/>
       <c r="S55" s="49"/>
       <c r="T55" s="50"/>
       <c r="U55" s="50"/>
@@ -4969,51 +4981,51 @@
       <c r="AI55"/>
     </row>
     <row r="56" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="107" t="s">
+      <c r="A56" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="107"/>
-      <c r="C56" s="100">
+      <c r="B56" s="168"/>
+      <c r="C56" s="169">
         <f>C51*14451</f>
         <v>1113268.9124999999</v>
       </c>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100">
+      <c r="D56" s="169"/>
+      <c r="E56" s="169">
         <f>E51*14451</f>
         <v>1004886.4124999999</v>
       </c>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100">
+      <c r="F56" s="169"/>
+      <c r="G56" s="169">
         <f>G51*14451</f>
         <v>983209.91249999986</v>
       </c>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100">
+      <c r="H56" s="169"/>
+      <c r="I56" s="169">
         <f>I51*14451</f>
+        <v>1117495.83</v>
+      </c>
+      <c r="J56" s="169"/>
+      <c r="K56" s="175">
         <v>1163847.4124999999</v>
       </c>
-      <c r="J56" s="100"/>
-      <c r="K56" s="101">
-        <v>1163847.4124999999</v>
-      </c>
-      <c r="L56" s="101"/>
-      <c r="M56" s="101"/>
-      <c r="N56" s="100">
+      <c r="L56" s="175"/>
+      <c r="M56" s="175"/>
+      <c r="N56" s="169">
         <f>N51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="O56" s="100"/>
-      <c r="P56" s="100">
+      <c r="O56" s="169"/>
+      <c r="P56" s="169">
         <f>P51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="Q56" s="100"/>
-      <c r="R56" s="102">
+      <c r="Q56" s="169"/>
+      <c r="R56" s="170">
         <f>SUM(C56:Q57)</f>
-        <v>7965066.0524999993</v>
-      </c>
-      <c r="S56" s="103"/>
-      <c r="T56" s="104" t="s">
+        <v>7918714.4699999997</v>
+      </c>
+      <c r="S56" s="171"/>
+      <c r="T56" s="172" t="s">
         <v>105</v>
       </c>
       <c r="U56" s="50"/>
@@ -5033,26 +5045,26 @@
       <c r="AI56"/>
     </row>
     <row r="57" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="107"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="101"/>
-      <c r="L57" s="101"/>
-      <c r="M57" s="101"/>
-      <c r="N57" s="100"/>
-      <c r="O57" s="100"/>
-      <c r="P57" s="100"/>
-      <c r="Q57" s="100"/>
-      <c r="R57" s="103"/>
-      <c r="S57" s="103"/>
-      <c r="T57" s="104"/>
+      <c r="A57" s="168"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="169"/>
+      <c r="G57" s="169"/>
+      <c r="H57" s="169"/>
+      <c r="I57" s="169"/>
+      <c r="J57" s="169"/>
+      <c r="K57" s="175"/>
+      <c r="L57" s="175"/>
+      <c r="M57" s="175"/>
+      <c r="N57" s="169"/>
+      <c r="O57" s="169"/>
+      <c r="P57" s="169"/>
+      <c r="Q57" s="169"/>
+      <c r="R57" s="171"/>
+      <c r="S57" s="171"/>
+      <c r="T57" s="172"/>
       <c r="U57" s="50"/>
       <c r="V57" s="50"/>
       <c r="W57" s="50"/>
@@ -5070,76 +5082,76 @@
       <c r="AI57"/>
     </row>
     <row r="58" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="105" t="s">
+      <c r="A58" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="105"/>
-      <c r="C58" s="106">
+      <c r="B58" s="173"/>
+      <c r="C58" s="174">
         <f>C56/C54-100%</f>
         <v>1.5793379776634087E-2</v>
       </c>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106">
+      <c r="D58" s="174"/>
+      <c r="E58" s="174">
         <f>E56/E54-100%</f>
         <v>0.15444472686541433</v>
       </c>
-      <c r="F58" s="106"/>
-      <c r="G58" s="106">
+      <c r="F58" s="174"/>
+      <c r="G58" s="174">
         <f>G56/G54-100%</f>
         <v>-3.6493789504630447E-2</v>
       </c>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106">
+      <c r="H58" s="174"/>
+      <c r="I58" s="174">
         <f>I56/I54-100%</f>
-        <v>0.13385689755954977</v>
-      </c>
-      <c r="J58" s="106"/>
-      <c r="K58" s="106">
+        <v>8.8699722344001142E-2</v>
+      </c>
+      <c r="J58" s="174"/>
+      <c r="K58" s="174">
         <f>K56/K54-100%</f>
         <v>0.12726757954380341</v>
       </c>
-      <c r="L58" s="106"/>
-      <c r="M58" s="106"/>
-      <c r="N58" s="106">
+      <c r="L58" s="174"/>
+      <c r="M58" s="174"/>
+      <c r="N58" s="174">
         <f>N56/N54-100%</f>
         <v>0.20024894221212564</v>
       </c>
-      <c r="O58" s="106"/>
-      <c r="P58" s="106">
+      <c r="O58" s="174"/>
+      <c r="P58" s="174">
         <f>P56/P54-100%</f>
         <v>0.32021760112447306</v>
       </c>
-      <c r="Q58" s="106"/>
-      <c r="R58" s="106">
+      <c r="Q58" s="174"/>
+      <c r="R58" s="174">
         <f>AVERAGE(C58:Q59)</f>
-        <v>0.13076219108248141</v>
-      </c>
-      <c r="S58" s="106"/>
-      <c r="T58" s="104" t="s">
+        <v>0.12431116605168875</v>
+      </c>
+      <c r="S58" s="174"/>
+      <c r="T58" s="172" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="105"/>
-      <c r="B59" s="105"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="106"/>
-      <c r="I59" s="106"/>
-      <c r="J59" s="106"/>
-      <c r="K59" s="106"/>
-      <c r="L59" s="106"/>
-      <c r="M59" s="106"/>
-      <c r="N59" s="106"/>
-      <c r="O59" s="106"/>
-      <c r="P59" s="106"/>
-      <c r="Q59" s="106"/>
-      <c r="R59" s="106"/>
-      <c r="S59" s="106"/>
-      <c r="T59" s="104"/>
+      <c r="A59" s="173"/>
+      <c r="B59" s="173"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
+      <c r="E59" s="174"/>
+      <c r="F59" s="174"/>
+      <c r="G59" s="174"/>
+      <c r="H59" s="174"/>
+      <c r="I59" s="174"/>
+      <c r="J59" s="174"/>
+      <c r="K59" s="174"/>
+      <c r="L59" s="174"/>
+      <c r="M59" s="174"/>
+      <c r="N59" s="174"/>
+      <c r="O59" s="174"/>
+      <c r="P59" s="174"/>
+      <c r="Q59" s="174"/>
+      <c r="R59" s="174"/>
+      <c r="S59" s="174"/>
+      <c r="T59" s="172"/>
       <c r="U59" s="50"/>
       <c r="V59" s="50"/>
       <c r="W59" s="50"/>
@@ -5157,39 +5169,39 @@
       <c r="AI59"/>
     </row>
     <row r="60" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="107"/>
-      <c r="C60" s="100">
+      <c r="B60" s="168"/>
+      <c r="C60" s="169">
         <v>5616890</v>
       </c>
-      <c r="D60" s="100"/>
-      <c r="E60" s="100">
+      <c r="D60" s="169"/>
+      <c r="E60" s="169">
         <v>2704420</v>
       </c>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100">
+      <c r="F60" s="169"/>
+      <c r="G60" s="169">
         <v>3785170</v>
       </c>
-      <c r="H60" s="100"/>
-      <c r="I60" s="100">
+      <c r="H60" s="169"/>
+      <c r="I60" s="169">
         <v>4748100</v>
       </c>
-      <c r="J60" s="100"/>
-      <c r="K60" s="100">
+      <c r="J60" s="169"/>
+      <c r="K60" s="169">
         <v>4277980</v>
       </c>
-      <c r="L60" s="100"/>
-      <c r="M60" s="100"/>
-      <c r="N60" s="100">
+      <c r="L60" s="169"/>
+      <c r="M60" s="169"/>
+      <c r="N60" s="169">
         <v>5076670</v>
       </c>
-      <c r="O60" s="100"/>
-      <c r="P60" s="100">
+      <c r="O60" s="169"/>
+      <c r="P60" s="169">
         <v>6000340</v>
       </c>
-      <c r="Q60" s="100"/>
+      <c r="Q60" s="169"/>
       <c r="S60" s="49"/>
       <c r="T60" s="50"/>
       <c r="U60" s="50"/>
@@ -5209,23 +5221,23 @@
       <c r="AI60"/>
     </row>
     <row r="61" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="107"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="100"/>
-      <c r="E61" s="100"/>
-      <c r="F61" s="100"/>
-      <c r="G61" s="100"/>
-      <c r="H61" s="100"/>
-      <c r="I61" s="100"/>
-      <c r="J61" s="100"/>
-      <c r="K61" s="100"/>
-      <c r="L61" s="100"/>
-      <c r="M61" s="100"/>
-      <c r="N61" s="100"/>
-      <c r="O61" s="100"/>
-      <c r="P61" s="100"/>
-      <c r="Q61" s="100"/>
+      <c r="A61" s="168"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="169"/>
+      <c r="F61" s="169"/>
+      <c r="G61" s="169"/>
+      <c r="H61" s="169"/>
+      <c r="I61" s="169"/>
+      <c r="J61" s="169"/>
+      <c r="K61" s="169"/>
+      <c r="L61" s="169"/>
+      <c r="M61" s="169"/>
+      <c r="N61" s="169"/>
+      <c r="O61" s="169"/>
+      <c r="P61" s="169"/>
+      <c r="Q61" s="169"/>
       <c r="S61" s="49"/>
       <c r="T61" s="50"/>
       <c r="U61" s="50"/>
@@ -5245,39 +5257,39 @@
       <c r="AI61"/>
     </row>
     <row r="62" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="107" t="s">
+      <c r="A62" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="107"/>
-      <c r="C62" s="100">
+      <c r="B62" s="168"/>
+      <c r="C62" s="169">
         <v>8170510</v>
       </c>
-      <c r="D62" s="100"/>
-      <c r="E62" s="100">
+      <c r="D62" s="169"/>
+      <c r="E62" s="169">
         <v>4484960</v>
       </c>
-      <c r="F62" s="100"/>
-      <c r="G62" s="100">
+      <c r="F62" s="169"/>
+      <c r="G62" s="169">
         <v>2086960</v>
       </c>
-      <c r="H62" s="100"/>
-      <c r="I62" s="100">
+      <c r="H62" s="169"/>
+      <c r="I62" s="169">
         <v>2634530</v>
       </c>
-      <c r="J62" s="100"/>
-      <c r="K62" s="100">
+      <c r="J62" s="169"/>
+      <c r="K62" s="169">
         <v>4909830</v>
       </c>
-      <c r="L62" s="100"/>
-      <c r="M62" s="100"/>
-      <c r="N62" s="100">
+      <c r="L62" s="169"/>
+      <c r="M62" s="169"/>
+      <c r="N62" s="169">
         <v>6227730</v>
       </c>
-      <c r="O62" s="100"/>
-      <c r="P62" s="100">
+      <c r="O62" s="169"/>
+      <c r="P62" s="169">
         <v>5253860</v>
       </c>
-      <c r="Q62" s="100"/>
+      <c r="Q62" s="169"/>
       <c r="S62" s="49"/>
       <c r="T62" s="50"/>
       <c r="U62" s="50"/>
@@ -5297,23 +5309,23 @@
       <c r="AI62"/>
     </row>
     <row r="63" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="107"/>
-      <c r="B63" s="107"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="100"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="100"/>
-      <c r="K63" s="100"/>
-      <c r="L63" s="100"/>
-      <c r="M63" s="100"/>
-      <c r="N63" s="100"/>
-      <c r="O63" s="100"/>
-      <c r="P63" s="100"/>
-      <c r="Q63" s="100"/>
+      <c r="A63" s="168"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="169"/>
+      <c r="G63" s="169"/>
+      <c r="H63" s="169"/>
+      <c r="I63" s="169"/>
+      <c r="J63" s="169"/>
+      <c r="K63" s="169"/>
+      <c r="L63" s="169"/>
+      <c r="M63" s="169"/>
+      <c r="N63" s="169"/>
+      <c r="O63" s="169"/>
+      <c r="P63" s="169"/>
+      <c r="Q63" s="169"/>
       <c r="S63" s="49"/>
       <c r="T63" s="50"/>
       <c r="U63" s="50"/>
@@ -5328,45 +5340,45 @@
       <c r="AD63"/>
     </row>
     <row r="64" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="107" t="s">
+      <c r="A64" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="107"/>
-      <c r="C64" s="108">
+      <c r="B64" s="168"/>
+      <c r="C64" s="143">
         <f>C62/C60-100%</f>
         <v>0.45463236773374582</v>
       </c>
-      <c r="D64" s="108"/>
-      <c r="E64" s="108">
+      <c r="D64" s="143"/>
+      <c r="E64" s="143">
         <f>E62/E60-100%</f>
         <v>0.65838146441750922</v>
       </c>
-      <c r="F64" s="108"/>
-      <c r="G64" s="108">
+      <c r="F64" s="143"/>
+      <c r="G64" s="143">
         <f>G62/G60-100%</f>
         <v>-0.44864827735610291</v>
       </c>
-      <c r="H64" s="108"/>
-      <c r="I64" s="108">
+      <c r="H64" s="143"/>
+      <c r="I64" s="143">
         <f>I62/I60-100%</f>
         <v>-0.44514016132768897</v>
       </c>
-      <c r="J64" s="108"/>
-      <c r="K64" s="108">
+      <c r="J64" s="143"/>
+      <c r="K64" s="143">
         <v>-3.4771556266833259E-2</v>
       </c>
-      <c r="L64" s="108"/>
-      <c r="M64" s="108"/>
-      <c r="N64" s="108">
+      <c r="L64" s="143"/>
+      <c r="M64" s="143"/>
+      <c r="N64" s="143">
         <f>N62/N60-100%</f>
         <v>0.22673524180220506</v>
       </c>
-      <c r="O64" s="108"/>
-      <c r="P64" s="108">
+      <c r="O64" s="143"/>
+      <c r="P64" s="143">
         <f>P62/P60-100%</f>
         <v>-0.12440628364392681</v>
       </c>
-      <c r="Q64" s="108"/>
+      <c r="Q64" s="143"/>
       <c r="S64" s="49"/>
       <c r="T64" s="50"/>
       <c r="U64" s="50"/>
@@ -5381,23 +5393,23 @@
       <c r="AD64"/>
     </row>
     <row r="65" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="107"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="108"/>
-      <c r="E65" s="108"/>
-      <c r="F65" s="108"/>
-      <c r="G65" s="108"/>
-      <c r="H65" s="108"/>
-      <c r="I65" s="108"/>
-      <c r="J65" s="108"/>
-      <c r="K65" s="108"/>
-      <c r="L65" s="108"/>
-      <c r="M65" s="108"/>
-      <c r="N65" s="108"/>
-      <c r="O65" s="108"/>
-      <c r="P65" s="108"/>
-      <c r="Q65" s="108"/>
+      <c r="A65" s="168"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="143"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="143"/>
+      <c r="G65" s="143"/>
+      <c r="H65" s="143"/>
+      <c r="I65" s="143"/>
+      <c r="J65" s="143"/>
+      <c r="K65" s="143"/>
+      <c r="L65" s="143"/>
+      <c r="M65" s="143"/>
+      <c r="N65" s="143"/>
+      <c r="O65" s="143"/>
+      <c r="P65" s="143"/>
+      <c r="Q65" s="143"/>
       <c r="S65" s="49"/>
       <c r="T65" s="50"/>
       <c r="U65" s="50"/>
@@ -5442,34 +5454,34 @@
       <c r="AD66"/>
     </row>
     <row r="67" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="109" t="s">
+      <c r="A67" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="110"/>
-      <c r="C67" s="113">
+      <c r="B67" s="145"/>
+      <c r="C67" s="148">
         <f>AVERAGE(C64:Q65)</f>
         <v>4.0968970765558312E-2</v>
       </c>
-      <c r="D67" s="114"/>
-      <c r="E67" s="117" t="s">
+      <c r="D67" s="149"/>
+      <c r="E67" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="118"/>
-      <c r="G67" s="121">
+      <c r="F67" s="153"/>
+      <c r="G67" s="156">
         <f>AVERAGE(K64:Q65)</f>
         <v>2.2519133963814997E-2</v>
       </c>
-      <c r="H67" s="122"/>
-      <c r="I67" s="125" t="s">
+      <c r="H67" s="157"/>
+      <c r="I67" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="J67" s="126"/>
-      <c r="K67" s="129">
+      <c r="J67" s="161"/>
+      <c r="K67" s="164">
         <f>AVERAGE(C67,G67)</f>
         <v>3.1744052364686651E-2</v>
       </c>
-      <c r="L67" s="129"/>
-      <c r="M67" s="130"/>
+      <c r="L67" s="164"/>
+      <c r="M67" s="165"/>
       <c r="N67" s="20"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
@@ -5489,19 +5501,19 @@
       <c r="AD67"/>
     </row>
     <row r="68" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="111"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="115"/>
-      <c r="D68" s="116"/>
-      <c r="E68" s="119"/>
-      <c r="F68" s="120"/>
-      <c r="G68" s="123"/>
-      <c r="H68" s="124"/>
-      <c r="I68" s="127"/>
-      <c r="J68" s="128"/>
-      <c r="K68" s="131"/>
-      <c r="L68" s="131"/>
-      <c r="M68" s="132"/>
+      <c r="A68" s="146"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="150"/>
+      <c r="D68" s="151"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="155"/>
+      <c r="G68" s="158"/>
+      <c r="H68" s="159"/>
+      <c r="I68" s="162"/>
+      <c r="J68" s="163"/>
+      <c r="K68" s="166"/>
+      <c r="L68" s="166"/>
+      <c r="M68" s="167"/>
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
@@ -5516,46 +5528,46 @@
       <c r="Z68" s="27"/>
     </row>
     <row r="69" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="153" t="s">
+      <c r="A69" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="154"/>
-      <c r="C69" s="157">
+      <c r="B69" s="134"/>
+      <c r="C69" s="137">
         <f>C62+C62*C67</f>
         <v>8505247.385329701</v>
       </c>
-      <c r="D69" s="158"/>
-      <c r="E69" s="161">
+      <c r="D69" s="138"/>
+      <c r="E69" s="141">
         <f>E62+E62*C67</f>
         <v>4668704.1951246988</v>
       </c>
-      <c r="F69" s="162"/>
-      <c r="G69" s="161">
+      <c r="F69" s="142"/>
+      <c r="G69" s="141">
         <f>G62+G62*C67</f>
         <v>2172460.6032288894</v>
       </c>
-      <c r="H69" s="162"/>
-      <c r="I69" s="161">
+      <c r="H69" s="142"/>
+      <c r="I69" s="141">
         <f>I62+I62*C67</f>
         <v>2742463.9825509861</v>
       </c>
-      <c r="J69" s="162"/>
-      <c r="K69" s="133">
+      <c r="J69" s="142"/>
+      <c r="K69" s="116">
         <f>K62+K62*C67</f>
         <v>5110980.6817338616</v>
       </c>
-      <c r="L69" s="137"/>
-      <c r="M69" s="134"/>
-      <c r="N69" s="133">
+      <c r="L69" s="120"/>
+      <c r="M69" s="117"/>
+      <c r="N69" s="116">
         <f>N62+N62*C67</f>
         <v>6482873.6883057905</v>
       </c>
-      <c r="O69" s="134"/>
-      <c r="P69" s="137">
+      <c r="O69" s="117"/>
+      <c r="P69" s="120">
         <f>P62+P62*C67</f>
         <v>5469105.2367463363</v>
       </c>
-      <c r="Q69" s="138"/>
+      <c r="Q69" s="121"/>
       <c r="U69"/>
       <c r="V69"/>
       <c r="W69"/>
@@ -5564,23 +5576,23 @@
       <c r="Z69"/>
     </row>
     <row r="70" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="155"/>
-      <c r="B70" s="156"/>
-      <c r="C70" s="159"/>
-      <c r="D70" s="160"/>
-      <c r="E70" s="159"/>
-      <c r="F70" s="160"/>
-      <c r="G70" s="159"/>
-      <c r="H70" s="160"/>
-      <c r="I70" s="159"/>
-      <c r="J70" s="160"/>
-      <c r="K70" s="135"/>
-      <c r="L70" s="139"/>
-      <c r="M70" s="136"/>
-      <c r="N70" s="135"/>
-      <c r="O70" s="136"/>
-      <c r="P70" s="139"/>
-      <c r="Q70" s="140"/>
+      <c r="A70" s="135"/>
+      <c r="B70" s="136"/>
+      <c r="C70" s="139"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="139"/>
+      <c r="F70" s="140"/>
+      <c r="G70" s="139"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="139"/>
+      <c r="J70" s="140"/>
+      <c r="K70" s="118"/>
+      <c r="L70" s="122"/>
+      <c r="M70" s="119"/>
+      <c r="N70" s="118"/>
+      <c r="O70" s="119"/>
+      <c r="P70" s="122"/>
+      <c r="Q70" s="123"/>
       <c r="U70"/>
       <c r="V70"/>
       <c r="W70"/>
@@ -5589,46 +5601,46 @@
       <c r="Z70"/>
     </row>
     <row r="71" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="141" t="s">
+      <c r="A71" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="B71" s="142"/>
-      <c r="C71" s="145">
+      <c r="B71" s="78"/>
+      <c r="C71" s="125">
         <f>C62+C62*G67</f>
         <v>8354502.80924269</v>
       </c>
-      <c r="D71" s="146"/>
-      <c r="E71" s="145">
+      <c r="D71" s="126"/>
+      <c r="E71" s="125">
         <f>E62+E62*G67</f>
         <v>4585957.4150623521</v>
       </c>
-      <c r="F71" s="146"/>
-      <c r="G71" s="145">
+      <c r="F71" s="126"/>
+      <c r="G71" s="125">
         <f>G62+G62*G67</f>
         <v>2133956.5318171233</v>
       </c>
-      <c r="H71" s="146"/>
-      <c r="I71" s="145">
+      <c r="H71" s="126"/>
+      <c r="I71" s="125">
         <f>I62+I62*G67</f>
         <v>2693857.3340016897</v>
       </c>
-      <c r="J71" s="146"/>
-      <c r="K71" s="145">
+      <c r="J71" s="126"/>
+      <c r="K71" s="125">
         <f>K62+K62*G67</f>
         <v>5020395.1195095582</v>
       </c>
-      <c r="L71" s="149"/>
-      <c r="M71" s="146"/>
-      <c r="N71" s="145">
+      <c r="L71" s="129"/>
+      <c r="M71" s="126"/>
+      <c r="N71" s="125">
         <f>N62+N62*G67</f>
         <v>6367973.0861604698</v>
       </c>
-      <c r="O71" s="146"/>
-      <c r="P71" s="149">
+      <c r="O71" s="126"/>
+      <c r="P71" s="129">
         <f>P62+P62*G67</f>
         <v>5372172.377167129</v>
       </c>
-      <c r="Q71" s="151"/>
+      <c r="Q71" s="131"/>
       <c r="U71"/>
       <c r="V71"/>
       <c r="W71"/>
@@ -5637,23 +5649,23 @@
       <c r="Z71"/>
     </row>
     <row r="72" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="143"/>
-      <c r="B72" s="144"/>
-      <c r="C72" s="147"/>
-      <c r="D72" s="148"/>
-      <c r="E72" s="147"/>
-      <c r="F72" s="148"/>
-      <c r="G72" s="147"/>
-      <c r="H72" s="148"/>
-      <c r="I72" s="147"/>
-      <c r="J72" s="148"/>
-      <c r="K72" s="147"/>
-      <c r="L72" s="150"/>
-      <c r="M72" s="148"/>
-      <c r="N72" s="147"/>
-      <c r="O72" s="148"/>
-      <c r="P72" s="150"/>
-      <c r="Q72" s="152"/>
+      <c r="A72" s="79"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="127"/>
+      <c r="D72" s="128"/>
+      <c r="E72" s="127"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="127"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="127"/>
+      <c r="J72" s="128"/>
+      <c r="K72" s="127"/>
+      <c r="L72" s="130"/>
+      <c r="M72" s="128"/>
+      <c r="N72" s="127"/>
+      <c r="O72" s="128"/>
+      <c r="P72" s="130"/>
+      <c r="Q72" s="132"/>
       <c r="U72"/>
       <c r="V72"/>
       <c r="W72"/>
@@ -5662,50 +5674,50 @@
       <c r="Z72"/>
     </row>
     <row r="73" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="182" t="s">
+      <c r="A73" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="183"/>
-      <c r="C73" s="163">
+      <c r="B73" s="65"/>
+      <c r="C73" s="90">
         <f>C62+C62*K67</f>
         <v>8429875.0972861964</v>
       </c>
-      <c r="D73" s="164"/>
-      <c r="E73" s="163">
+      <c r="D73" s="91"/>
+      <c r="E73" s="90">
         <f>E62+E62*K67</f>
         <v>4627330.805093525</v>
       </c>
-      <c r="F73" s="186"/>
-      <c r="G73" s="163">
+      <c r="F73" s="110"/>
+      <c r="G73" s="90">
         <f>G62+G62*K67</f>
         <v>2153208.5675230063</v>
       </c>
-      <c r="H73" s="164"/>
-      <c r="I73" s="163">
+      <c r="H73" s="91"/>
+      <c r="I73" s="90">
         <f>I62+I62*K67</f>
         <v>2718160.6582763381</v>
       </c>
-      <c r="J73" s="164"/>
-      <c r="K73" s="163">
+      <c r="J73" s="91"/>
+      <c r="K73" s="90">
         <f>K62+K62*K67</f>
         <v>5065687.9006217094</v>
       </c>
-      <c r="L73" s="167"/>
-      <c r="M73" s="164"/>
-      <c r="N73" s="163">
+      <c r="L73" s="94"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="90">
         <f>N62+N62*K67</f>
         <v>6425423.3872331297</v>
       </c>
-      <c r="O73" s="164"/>
-      <c r="P73" s="167">
+      <c r="O73" s="91"/>
+      <c r="P73" s="94">
         <f>P62+P62*K67</f>
         <v>5420638.8069567326</v>
       </c>
-      <c r="Q73" s="168"/>
-      <c r="R73" s="171" t="s">
+      <c r="Q73" s="95"/>
+      <c r="R73" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="S73" s="171"/>
+      <c r="S73" s="98"/>
       <c r="U73"/>
       <c r="V73"/>
       <c r="W73"/>
@@ -5714,25 +5726,25 @@
       <c r="Z73"/>
     </row>
     <row r="74" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="184"/>
-      <c r="B74" s="185"/>
-      <c r="C74" s="165"/>
-      <c r="D74" s="166"/>
-      <c r="E74" s="187"/>
-      <c r="F74" s="188"/>
-      <c r="G74" s="165"/>
-      <c r="H74" s="166"/>
-      <c r="I74" s="165"/>
-      <c r="J74" s="166"/>
-      <c r="K74" s="165"/>
-      <c r="L74" s="169"/>
-      <c r="M74" s="166"/>
-      <c r="N74" s="165"/>
-      <c r="O74" s="166"/>
-      <c r="P74" s="169"/>
-      <c r="Q74" s="170"/>
-      <c r="R74" s="171"/>
-      <c r="S74" s="171"/>
+      <c r="A74" s="66"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="111"/>
+      <c r="F74" s="112"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="93"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="93"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="96"/>
+      <c r="M74" s="93"/>
+      <c r="N74" s="92"/>
+      <c r="O74" s="93"/>
+      <c r="P74" s="96"/>
+      <c r="Q74" s="97"/>
+      <c r="R74" s="98"/>
+      <c r="S74" s="98"/>
       <c r="U74"/>
       <c r="V74"/>
       <c r="W74"/>
@@ -5741,51 +5753,51 @@
       <c r="Z74"/>
     </row>
     <row r="75" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="172" t="s">
+      <c r="A75" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="173"/>
-      <c r="C75" s="176">
+      <c r="B75" s="100"/>
+      <c r="C75" s="103">
         <f>C56/C69</f>
         <v>0.13089200843472523</v>
       </c>
-      <c r="D75" s="177"/>
-      <c r="E75" s="176">
+      <c r="D75" s="104"/>
+      <c r="E75" s="103">
         <f>E56/E69</f>
         <v>0.21523882655691787</v>
       </c>
-      <c r="F75" s="177"/>
-      <c r="G75" s="176">
+      <c r="F75" s="104"/>
+      <c r="G75" s="103">
         <f>G56/G69</f>
         <v>0.45257893792811366</v>
       </c>
-      <c r="H75" s="177"/>
-      <c r="I75" s="176">
+      <c r="H75" s="104"/>
+      <c r="I75" s="103">
         <f>I56/I69</f>
-        <v>0.4243801996689896</v>
-      </c>
-      <c r="J75" s="177"/>
-      <c r="K75" s="176">
+        <v>0.40747876256902649</v>
+      </c>
+      <c r="J75" s="104"/>
+      <c r="K75" s="103">
         <f>K56/K69</f>
         <v>0.2277150873724636</v>
       </c>
-      <c r="L75" s="180"/>
-      <c r="M75" s="177"/>
-      <c r="N75" s="176">
+      <c r="L75" s="107"/>
+      <c r="M75" s="104"/>
+      <c r="N75" s="103">
         <f>N56/N69</f>
         <v>0.19559273494519916</v>
       </c>
-      <c r="O75" s="177"/>
-      <c r="P75" s="180">
+      <c r="O75" s="104"/>
+      <c r="P75" s="107">
         <f>P56/P69</f>
         <v>0.23184834449343247</v>
       </c>
-      <c r="Q75" s="189"/>
-      <c r="R75" s="191">
+      <c r="Q75" s="113"/>
+      <c r="R75" s="115">
         <f>AVERAGE(C75:Q76)</f>
-        <v>0.26832087705712021</v>
-      </c>
-      <c r="S75" s="191"/>
+        <v>0.26590638604283978</v>
+      </c>
+      <c r="S75" s="115"/>
       <c r="U75"/>
       <c r="V75"/>
       <c r="W75"/>
@@ -5794,25 +5806,25 @@
       <c r="Z75"/>
     </row>
     <row r="76" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="174"/>
-      <c r="B76" s="175"/>
-      <c r="C76" s="178"/>
-      <c r="D76" s="179"/>
-      <c r="E76" s="178"/>
-      <c r="F76" s="179"/>
-      <c r="G76" s="178"/>
-      <c r="H76" s="179"/>
-      <c r="I76" s="178"/>
-      <c r="J76" s="179"/>
-      <c r="K76" s="178"/>
-      <c r="L76" s="181"/>
-      <c r="M76" s="179"/>
-      <c r="N76" s="178"/>
-      <c r="O76" s="179"/>
-      <c r="P76" s="181"/>
-      <c r="Q76" s="190"/>
-      <c r="R76" s="191"/>
-      <c r="S76" s="191"/>
+      <c r="A76" s="101"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="106"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="106"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="106"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="106"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="108"/>
+      <c r="M76" s="106"/>
+      <c r="N76" s="105"/>
+      <c r="O76" s="106"/>
+      <c r="P76" s="108"/>
+      <c r="Q76" s="114"/>
+      <c r="R76" s="115"/>
+      <c r="S76" s="115"/>
       <c r="U76"/>
       <c r="V76"/>
       <c r="W76"/>
@@ -5821,51 +5833,51 @@
       <c r="Z76"/>
     </row>
     <row r="77" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="192" t="s">
+      <c r="A77" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="142"/>
-      <c r="C77" s="193">
+      <c r="B77" s="78"/>
+      <c r="C77" s="81">
         <f>C56/C71</f>
         <v>0.13325376002846953</v>
       </c>
-      <c r="D77" s="194"/>
-      <c r="E77" s="193">
+      <c r="D77" s="82"/>
+      <c r="E77" s="81">
         <f>E56/E71</f>
         <v>0.21912249101997758</v>
       </c>
-      <c r="F77" s="194"/>
-      <c r="G77" s="193">
+      <c r="F77" s="82"/>
+      <c r="G77" s="81">
         <f>G56/G71</f>
         <v>0.46074505166362001</v>
       </c>
-      <c r="H77" s="194"/>
-      <c r="I77" s="193">
+      <c r="H77" s="82"/>
+      <c r="I77" s="81">
         <f>I56/I71</f>
-        <v>0.43203750911750022</v>
-      </c>
-      <c r="J77" s="194"/>
-      <c r="K77" s="193">
+        <v>0.41483111072551665</v>
+      </c>
+      <c r="J77" s="82"/>
+      <c r="K77" s="81">
         <f>K56/K71</f>
         <v>0.23182386740382618</v>
       </c>
-      <c r="L77" s="197"/>
-      <c r="M77" s="194"/>
-      <c r="N77" s="193">
+      <c r="L77" s="85"/>
+      <c r="M77" s="82"/>
+      <c r="N77" s="81">
         <f>N56/N71</f>
         <v>0.19912191490817602</v>
       </c>
-      <c r="O77" s="194"/>
-      <c r="P77" s="197">
+      <c r="O77" s="82"/>
+      <c r="P77" s="85">
         <f>P56/P71</f>
         <v>0.23603170300143039</v>
       </c>
-      <c r="Q77" s="199"/>
-      <c r="R77" s="201">
+      <c r="Q77" s="87"/>
+      <c r="R77" s="89">
         <f>AVERAGE(C77:Q78)</f>
-        <v>0.27316232816328567</v>
-      </c>
-      <c r="S77" s="201"/>
+        <v>0.27070427125014523</v>
+      </c>
+      <c r="S77" s="89"/>
       <c r="U77"/>
       <c r="V77"/>
       <c r="W77"/>
@@ -5874,25 +5886,25 @@
       <c r="Z77"/>
     </row>
     <row r="78" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="143"/>
-      <c r="B78" s="144"/>
-      <c r="C78" s="195"/>
-      <c r="D78" s="196"/>
-      <c r="E78" s="195"/>
-      <c r="F78" s="196"/>
-      <c r="G78" s="195"/>
-      <c r="H78" s="196"/>
-      <c r="I78" s="195"/>
-      <c r="J78" s="196"/>
-      <c r="K78" s="195"/>
-      <c r="L78" s="198"/>
-      <c r="M78" s="196"/>
-      <c r="N78" s="195"/>
-      <c r="O78" s="196"/>
-      <c r="P78" s="198"/>
-      <c r="Q78" s="200"/>
-      <c r="R78" s="201"/>
-      <c r="S78" s="201"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="84"/>
+      <c r="K78" s="83"/>
+      <c r="L78" s="86"/>
+      <c r="M78" s="84"/>
+      <c r="N78" s="83"/>
+      <c r="O78" s="84"/>
+      <c r="P78" s="86"/>
+      <c r="Q78" s="88"/>
+      <c r="R78" s="89"/>
+      <c r="S78" s="89"/>
       <c r="U78"/>
       <c r="V78"/>
       <c r="W78"/>
@@ -5901,51 +5913,51 @@
       <c r="Z78"/>
     </row>
     <row r="79" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="202" t="s">
+      <c r="A79" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B79" s="183"/>
-      <c r="C79" s="203">
+      <c r="B79" s="65"/>
+      <c r="C79" s="68">
         <f>C56/C73</f>
         <v>0.13206232591256198</v>
       </c>
-      <c r="D79" s="204"/>
-      <c r="E79" s="203">
+      <c r="D79" s="69"/>
+      <c r="E79" s="68">
         <f>E56/E73</f>
         <v>0.21716329668798981</v>
       </c>
-      <c r="F79" s="204"/>
-      <c r="G79" s="203">
+      <c r="F79" s="69"/>
+      <c r="G79" s="68">
         <f>G56/G73</f>
         <v>0.4566254878091342</v>
       </c>
-      <c r="H79" s="204"/>
-      <c r="I79" s="203">
+      <c r="H79" s="69"/>
+      <c r="I79" s="68">
         <f>I56/I73</f>
-        <v>0.42817462203945961</v>
-      </c>
-      <c r="J79" s="204"/>
-      <c r="K79" s="203">
+        <v>0.41112206763695691</v>
+      </c>
+      <c r="J79" s="69"/>
+      <c r="K79" s="68">
         <f>K56/K73</f>
         <v>0.22975110889819356</v>
       </c>
-      <c r="L79" s="207"/>
-      <c r="M79" s="204"/>
-      <c r="N79" s="203">
+      <c r="L79" s="72"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="68">
         <f>N56/N73</f>
         <v>0.19734154756547778</v>
       </c>
-      <c r="O79" s="204"/>
-      <c r="P79" s="207">
+      <c r="O79" s="69"/>
+      <c r="P79" s="72">
         <f>P56/P73</f>
         <v>0.233921321850973</v>
       </c>
-      <c r="Q79" s="209"/>
-      <c r="R79" s="211">
+      <c r="Q79" s="74"/>
+      <c r="R79" s="76">
         <f>AVERAGE(C79:Q80)</f>
-        <v>0.27071995868054144</v>
-      </c>
-      <c r="S79" s="211"/>
+        <v>0.2682838794801839</v>
+      </c>
+      <c r="S79" s="76"/>
       <c r="U79"/>
       <c r="V79"/>
       <c r="W79"/>
@@ -5954,25 +5966,25 @@
       <c r="Z79"/>
     </row>
     <row r="80" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="184"/>
-      <c r="B80" s="185"/>
-      <c r="C80" s="205"/>
-      <c r="D80" s="206"/>
-      <c r="E80" s="205"/>
-      <c r="F80" s="206"/>
-      <c r="G80" s="205"/>
-      <c r="H80" s="206"/>
-      <c r="I80" s="205"/>
-      <c r="J80" s="206"/>
-      <c r="K80" s="205"/>
-      <c r="L80" s="208"/>
-      <c r="M80" s="206"/>
-      <c r="N80" s="205"/>
-      <c r="O80" s="206"/>
-      <c r="P80" s="208"/>
-      <c r="Q80" s="210"/>
-      <c r="R80" s="211"/>
-      <c r="S80" s="211"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="70"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="71"/>
+      <c r="N80" s="70"/>
+      <c r="O80" s="71"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="75"/>
+      <c r="R80" s="76"/>
+      <c r="S80" s="76"/>
       <c r="U80"/>
       <c r="V80"/>
       <c r="W80"/>
@@ -5993,46 +6005,46 @@
       <c r="M82"/>
     </row>
     <row r="83" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="212" t="s">
+      <c r="A83" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="B83" s="212"/>
-      <c r="C83" s="215" t="s">
+      <c r="B83" s="58"/>
+      <c r="C83" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D83" s="215" t="s">
+      <c r="D83" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="E83" s="215" t="s">
+      <c r="E83" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="F83" s="215" t="s">
+      <c r="F83" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="G83" s="215" t="s">
+      <c r="G83" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="H83" s="215" t="s">
+      <c r="H83" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="I83" s="215" t="s">
+      <c r="I83" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="J83" s="215" t="s">
+      <c r="J83" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="L83" s="216" t="s">
+      <c r="L83" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="M83" s="216"/>
-      <c r="N83" s="217">
+      <c r="M83" s="61"/>
+      <c r="N83" s="62">
         <f>AVERAGE(C85:I94)</f>
         <v>0.30155000000000004</v>
       </c>
       <c r="O83"/>
       <c r="P83" s="53"/>
-      <c r="Q83" s="91"/>
-      <c r="R83" s="91"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="59"/>
       <c r="S83"/>
       <c r="T83"/>
       <c r="U83"/>
@@ -6043,92 +6055,92 @@
       <c r="Z83"/>
     </row>
     <row r="84" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="212"/>
-      <c r="B84" s="212"/>
-      <c r="C84" s="215"/>
-      <c r="D84" s="215"/>
-      <c r="E84" s="215"/>
-      <c r="F84" s="215"/>
-      <c r="G84" s="215"/>
-      <c r="H84" s="215"/>
-      <c r="I84" s="215"/>
-      <c r="J84" s="215"/>
-      <c r="L84" s="216"/>
-      <c r="M84" s="216"/>
-      <c r="N84" s="218"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="63"/>
       <c r="O84"/>
       <c r="P84"/>
-      <c r="Q84" s="91"/>
-      <c r="R84" s="91"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="59"/>
     </row>
     <row r="85" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="212" t="s">
+      <c r="A85" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="B85" s="212"/>
-      <c r="C85" s="213"/>
-      <c r="D85" s="213"/>
-      <c r="E85" s="213"/>
-      <c r="F85" s="213">
+      <c r="B85" s="58"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56">
         <v>0.45810000000000001</v>
       </c>
-      <c r="G85" s="213">
+      <c r="G85" s="56">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H85" s="213">
+      <c r="H85" s="56">
         <v>0.16520000000000001</v>
       </c>
-      <c r="I85" s="213">
+      <c r="I85" s="56">
         <v>0.19980000000000001</v>
       </c>
-      <c r="J85" s="214">
+      <c r="J85" s="57">
         <f>AVERAGE(C85:H86)</f>
         <v>0.28070000000000001</v>
       </c>
-      <c r="L85" s="216" t="s">
+      <c r="L85" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="M85" s="216"/>
-      <c r="N85" s="217">
+      <c r="M85" s="61"/>
+      <c r="N85" s="62">
         <v>0.28749999999999998</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="212"/>
-      <c r="B86" s="212"/>
-      <c r="C86" s="213"/>
-      <c r="D86" s="213"/>
-      <c r="E86" s="213"/>
-      <c r="F86" s="213"/>
-      <c r="G86" s="213"/>
-      <c r="H86" s="213"/>
-      <c r="I86" s="213"/>
-      <c r="J86" s="214"/>
-      <c r="L86" s="216"/>
-      <c r="M86" s="216"/>
-      <c r="N86" s="218"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="57"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="63"/>
     </row>
     <row r="87" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="212" t="s">
+      <c r="A87" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="B87" s="212"/>
-      <c r="C87" s="213">
+      <c r="B87" s="58"/>
+      <c r="C87" s="56">
         <v>0.1653</v>
       </c>
-      <c r="D87" s="213">
+      <c r="D87" s="56">
         <v>0.21510000000000001</v>
       </c>
-      <c r="E87" s="213">
+      <c r="E87" s="56">
         <v>0.61</v>
       </c>
-      <c r="F87" s="213">
+      <c r="F87" s="56">
         <v>0.38009999999999999</v>
       </c>
-      <c r="G87" s="213"/>
-      <c r="H87" s="213"/>
-      <c r="I87" s="213"/>
-      <c r="J87" s="214">
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57">
         <f>AVERAGE(C87:I88)</f>
         <v>0.34262499999999996</v>
       </c>
@@ -6136,32 +6148,32 @@
       <c r="M87"/>
     </row>
     <row r="88" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="212"/>
-      <c r="B88" s="212"/>
-      <c r="C88" s="213"/>
-      <c r="D88" s="213"/>
-      <c r="E88" s="213"/>
-      <c r="F88" s="213"/>
-      <c r="G88" s="213"/>
-      <c r="H88" s="213"/>
-      <c r="I88" s="213"/>
-      <c r="J88" s="214"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="57"/>
       <c r="L88"/>
       <c r="M88"/>
     </row>
     <row r="89" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="212" t="s">
+      <c r="A89" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="B89" s="212"/>
-      <c r="C89" s="213"/>
-      <c r="D89" s="213"/>
-      <c r="E89" s="213"/>
-      <c r="F89" s="213"/>
-      <c r="G89" s="213"/>
-      <c r="H89" s="213"/>
-      <c r="I89" s="213"/>
-      <c r="J89" s="214" t="e">
+      <c r="B89" s="58"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="57" t="e">
         <f>AVERAGE(C89:I90)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6169,32 +6181,32 @@
       <c r="M89"/>
     </row>
     <row r="90" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="212"/>
-      <c r="B90" s="212"/>
-      <c r="C90" s="213"/>
-      <c r="D90" s="213"/>
-      <c r="E90" s="213"/>
-      <c r="F90" s="213"/>
-      <c r="G90" s="213"/>
-      <c r="H90" s="213"/>
-      <c r="I90" s="213"/>
-      <c r="J90" s="214"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="57"/>
       <c r="L90"/>
       <c r="M90"/>
     </row>
     <row r="91" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="212" t="s">
+      <c r="A91" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="212"/>
-      <c r="C91" s="213"/>
-      <c r="D91" s="213"/>
-      <c r="E91" s="213"/>
-      <c r="F91" s="213"/>
-      <c r="G91" s="213"/>
-      <c r="H91" s="213"/>
-      <c r="I91" s="213"/>
-      <c r="J91" s="214" t="e">
+      <c r="B91" s="58"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="56"/>
+      <c r="J91" s="57" t="e">
         <f>AVERAGE(C91:I92)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6202,46 +6214,46 @@
       <c r="M91"/>
     </row>
     <row r="92" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="212"/>
-      <c r="B92" s="212"/>
-      <c r="C92" s="213"/>
-      <c r="D92" s="213"/>
-      <c r="E92" s="213"/>
-      <c r="F92" s="213"/>
-      <c r="G92" s="213"/>
-      <c r="H92" s="213"/>
-      <c r="I92" s="213"/>
-      <c r="J92" s="214"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="57"/>
       <c r="L92"/>
       <c r="M92"/>
     </row>
     <row r="93" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="212" t="s">
+      <c r="A93" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B93" s="212"/>
-      <c r="C93" s="213"/>
-      <c r="D93" s="213"/>
-      <c r="E93" s="213"/>
-      <c r="F93" s="213"/>
-      <c r="G93" s="213"/>
-      <c r="H93" s="213"/>
-      <c r="I93" s="213"/>
-      <c r="J93" s="214"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="57"/>
       <c r="L93"/>
       <c r="M93"/>
     </row>
     <row r="94" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="212"/>
-      <c r="B94" s="212"/>
-      <c r="C94" s="213"/>
-      <c r="D94" s="213"/>
-      <c r="E94" s="213"/>
-      <c r="F94" s="213"/>
-      <c r="G94" s="213"/>
-      <c r="H94" s="213"/>
-      <c r="I94" s="213"/>
-      <c r="J94" s="214"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="56"/>
+      <c r="J94" s="57"/>
       <c r="L94"/>
       <c r="M94"/>
     </row>
